--- a/metadata/specs.xlsx
+++ b/metadata/specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7108505C-3086-2946-A4EB-F286273989A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC596A-F463-E147-829A-71860B7FE1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="1702">
   <si>
     <t>Attribute</t>
   </si>
@@ -3730,9 +3730,6 @@
     <t>Algorithm to derive ADAE.AOCC01FL</t>
   </si>
   <si>
-    <t>Subset to CQ01NAM='' and TRTEMFL='Y' and sort by Subject (USUBJID), Start Date (ASTDT), and Sequence Number (AESEQ) and flag the first record (set AOCC01FL=?Y?) within each Subject (Flag First Treatment Emergent Dermatological Event for Time to Event Analysis)</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADAE.AOCC02FL</t>
   </si>
   <si>
@@ -3965,9 +3962,6 @@
   </si>
   <si>
     <t>Algorithm to derive ADLBC.PARCAT1</t>
-  </si>
-  <si>
-    <t>harcoded to 'CHEM'</t>
   </si>
   <si>
     <t>AVAL-BASE</t>
@@ -4420,21 +4414,12 @@
     <t>Algorithm to derive ADSL.COMP16FL</t>
   </si>
   <si>
-    <t>Y if subject has a SV.VISITNUM=10 and ENDDT&gt;=date of visit 10, N otherwise</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.COMP24FL</t>
   </si>
   <si>
-    <t>Y if subject has a SV.VISITNUM=12 and ENDDT&gt;= date of visit 12 , N otherwise</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.COMP8FL</t>
   </si>
   <si>
-    <t>Y if subject has a SV.VISITNUM=8 and ENDDT &gt;= date of visit 8, N otherwise</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.CUMDOSE</t>
   </si>
   <si>
@@ -4478,9 +4463,6 @@
   </si>
   <si>
     <t>Algorithm to derive ADSL.DURDIS</t>
-  </si>
-  <si>
-    <t>number of months between VISIT1DT and DISONSET</t>
   </si>
   <si>
     <t>Algorithm to derive ADSL.DURDSGR1</t>
@@ -4515,9 +4497,6 @@
     <t>Algorithm to derive ADSL.EFFFL</t>
   </si>
   <si>
-    <t>Y if SAFFL='Y AND subject has at least one record in QS for ADAS-Cog with VISITNUM&gt;3 AND at least one record in QS for CIBIC+ with VISITNUM&gt;3, N otherwise</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.EOSSTT</t>
   </si>
   <si>
@@ -4545,26 +4524,6 @@
     <t>Algorithm to derive ADSL.MMSETOT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sum of QS.QSORRES values for the subject </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>when QSCAT = MINI-MENTAL STATE</t>
-    </r>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.RACE</t>
   </si>
   <si>
@@ -4598,9 +4557,6 @@
     <t>Algorithm to derive ADSL.SAFFL</t>
   </si>
   <si>
-    <t>Y if ITTFL='Y' and TRTSDT ne missing. N otherwise</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.SEX</t>
   </si>
   <si>
@@ -4608,9 +4564,6 @@
   </si>
   <si>
     <t>Algorithm to derive ADSL.SITEGR1</t>
-  </si>
-  <si>
-    <t>refer to SAP, Section 7.1 - if not pooled then SITEGR1=SITEID. If pooled, SITEGR1 will be 900</t>
   </si>
   <si>
     <t>Algorithm to derive ADSL.SITEID</t>
@@ -5406,6 +5359,72 @@
   </si>
   <si>
     <t>PARAM_ADADAS</t>
+  </si>
+  <si>
+    <t>Y' if SAFFL='Y' AND subject has at least one record in QS for ADAS-Cog with VISITNUM&gt;3 AND at least one record in QS for CIBIC+ with VISITNUM&gt;3, 'N' otherwise</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sum of QS.QSORRES values for the subject </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>when QSCAT = MINI-MENTAL STATE</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of months between VISIT1DT and DISONSDT</t>
+  </si>
+  <si>
+    <t>Y' if ITTFL='Y' and TRTSDT ne missing. 'N' otherwise</t>
+  </si>
+  <si>
+    <t>Y' if subject has a SV.VISITNUM=10 and RFENDTC&gt;=date of visit 10 (SV.SVSTDTC), 'N' otherwise</t>
+  </si>
+  <si>
+    <t>Y' if subject has a SV.VISITNUM=12 and RFENDTC&gt;= date of visit 12 (SV.SVSTDTC), 'N' otherwise</t>
+  </si>
+  <si>
+    <t>Y' if subject has a SV.VISITNUM=8 and RFENDTC &gt;= date of visit 8 (SV.SVSTDTC), 'N' otherwise</t>
+  </si>
+  <si>
+    <t>For ARMN=0 or 1: CUMDOSE=TRT01PN*TRTDUR. --- For ARMN=2: CUMDOSE will be based on 54mg per day for the # of days subj was in 1st dosing interval (i.e., visit4date-TRTSDT+1 if 1st interval completed, TRTEDT-TRTSDT+1 if subj discontinued &lt;=visit 4 and &gt; visit 3), 81mg per day for the # of days subj was in 2nd dosing interval (i.e., visit12date-visit4date if 2nd interval completed, TRTEDT-visit4date if subj discontinued &lt;= visit 12 and &gt; visit 4), and 54mg per day for the # of days subj was in 3rd dosing interval (i.e., TRTEDT - visit12date if subj continued after visit 12).</t>
+  </si>
+  <si>
+    <t>Refer to SAP, Section 7.1 - if not pooled then SITEGR1=SITEID. If pooled, SITEGR1 will be 900</t>
+  </si>
+  <si>
+    <t>Filter for CQ01NAM='DERMATOLOGIC EVENTS' and TRTEMFL='Y' and sort by Subject (USUBJID), Start Date (ASTDT), and Sequence Number (AESEQ) and flag the first record (set AOCC01FL='Y') within each Subject (Flag First Treatment Emergent Dermatological Event for Time to Event Analysis)</t>
+  </si>
+  <si>
+    <t>Difference between AVAL and BASE</t>
+  </si>
+  <si>
+    <t>Set to 'CHEM'</t>
+  </si>
+  <si>
+    <t>Set to ANRIND where ABLFL='Y'</t>
+  </si>
+  <si>
+    <t>Set to  AVAL where ABLFL='Y'</t>
+  </si>
+  <si>
+    <t>Set to "NORMAL" if AVAL is greater or equal ANRLO and less than or equal ANRHI; or if AVAL is greater than or equal ANRLO and ANRHI is missing; or if AVAL is less than or equal ANRHI and ANRLO is missing
+Set to "LOW" if AVAL is less than ANRLO and either A1LO is missing or AVAL is greater than or equal A1LO
+Set to "HIGH" if AVAL is greater than ANRHI and either A1HI is missing or AVAL is less than or equal A1HI
+Set to "LOW LOW" if AVAL is less than A1LO
+Set to "HIGH HIGH" if AVAL is greater than A1HI</t>
   </si>
 </sst>
 </file>
@@ -5590,8 +5609,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6883,21 +6904,21 @@
         <v>757</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7910,7 +7931,7 @@
         <v>757</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1161</v>
@@ -8935,7 +8956,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>757</v>
@@ -8944,34 +8965,34 @@
         <v>1158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>60</v>
@@ -10030,7 +10051,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -10053,7 +10074,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -10076,7 +10097,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -10099,7 +10120,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -10122,7 +10143,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
@@ -10145,7 +10166,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -10168,7 +10189,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -10191,7 +10212,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
@@ -11195,11 +11216,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D366" sqref="D366"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A272" sqref="A272:XFD272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -11282,7 +11304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" hidden="1">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -11306,7 +11328,7 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="str">
@@ -11314,7 +11336,7 @@
         <v>DM.STUDYID</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" hidden="1">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -11338,7 +11360,7 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13" t="str">
@@ -11346,7 +11368,7 @@
         <v>DM.SITEID</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" hidden="1">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -11370,7 +11392,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13" t="str">
@@ -11378,7 +11400,7 @@
         <v>ADSL.SITEGR1</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" hidden="1">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -11402,7 +11424,7 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13" t="str">
@@ -11410,7 +11432,7 @@
         <v>DM.USUBJID</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" hidden="1">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -11437,7 +11459,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="str">
@@ -11445,7 +11467,7 @@
         <v>ADSL.TRTSDT</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" hidden="1">
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
@@ -11472,7 +11494,7 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13" t="str">
@@ -11480,7 +11502,7 @@
         <v>ADSL.TRTEDT</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" hidden="1">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -11507,14 +11529,14 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -11541,14 +11563,14 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" hidden="1">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -11572,7 +11594,7 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13" t="str">
@@ -11580,7 +11602,7 @@
         <v>DM.AGE</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -11607,7 +11629,7 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13" t="str">
@@ -11615,7 +11637,7 @@
         <v>ADSL.AGEGR1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -11642,7 +11664,7 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13" t="str">
@@ -11650,7 +11672,7 @@
         <v>ADSL.AGEGR1N</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" hidden="1">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -11677,7 +11699,7 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13" t="str">
@@ -11685,7 +11707,7 @@
         <v>DM.RACE</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14" s="2" t="s">
         <v>107</v>
       </c>
@@ -11712,7 +11734,7 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13" t="str">
@@ -11720,7 +11742,7 @@
         <v>ADSL.RACEN</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -11747,7 +11769,7 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13" t="str">
@@ -11755,7 +11777,7 @@
         <v>DM.SEX</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" s="2" t="s">
         <v>113</v>
       </c>
@@ -11782,7 +11804,7 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" s="13" t="str">
@@ -11790,7 +11812,7 @@
         <v>ADSL.ITTFL</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" hidden="1">
       <c r="A17" s="2" t="s">
         <v>117</v>
       </c>
@@ -11817,7 +11839,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13" t="str">
@@ -11825,7 +11847,7 @@
         <v>ADSL.EFFFL</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -11852,7 +11874,7 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13" t="str">
@@ -11860,7 +11882,7 @@
         <v>ADSL.COMP24FL</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -11895,7 +11917,7 @@
       </c>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
@@ -11922,15 +11944,15 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="R20" s="13" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>91</v>
       </c>
@@ -11957,7 +11979,7 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13" t="str">
@@ -11965,7 +11987,7 @@
         <v>QS.VISIT</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>131</v>
       </c>
@@ -11995,7 +12017,7 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13" t="str">
@@ -12003,7 +12025,7 @@
         <v>QS.VISITNUM</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>135</v>
       </c>
@@ -12035,7 +12057,7 @@
       </c>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>138</v>
       </c>
@@ -12070,7 +12092,7 @@
       </c>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>141</v>
       </c>
@@ -12097,7 +12119,7 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -12105,7 +12127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
@@ -12132,14 +12154,14 @@
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>151</v>
       </c>
@@ -12166,15 +12188,15 @@
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
       <c r="R27" s="13" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>155</v>
       </c>
@@ -12198,7 +12220,7 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -12206,7 +12228,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
@@ -12238,7 +12260,7 @@
       </c>
       <c r="P29" s="13"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
@@ -12270,7 +12292,7 @@
       </c>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>165</v>
       </c>
@@ -12302,7 +12324,7 @@
       </c>
       <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>168</v>
       </c>
@@ -12329,14 +12351,14 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -12371,7 +12393,7 @@
       </c>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1">
+    <row r="34" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>174</v>
       </c>
@@ -12406,7 +12428,7 @@
       </c>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1">
+    <row r="35" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -12430,15 +12452,15 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="R35" s="13" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>181</v>
       </c>
@@ -12462,15 +12484,15 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="R36" s="13" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>184</v>
       </c>
@@ -12494,15 +12516,15 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="R37" s="13" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>187</v>
       </c>
@@ -12526,15 +12548,15 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="R38" s="13" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -12558,15 +12580,15 @@
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="R39" s="13" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>193</v>
       </c>
@@ -12593,15 +12615,15 @@
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="13" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
       <c r="R40" s="13" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>196</v>
       </c>
@@ -12625,7 +12647,7 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="13" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13" t="str">
@@ -12633,7 +12655,7 @@
         <v>QS.QSSEQ</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1">
+    <row r="42" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -12663,7 +12685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1">
+    <row r="43" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -12693,7 +12715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1">
+    <row r="44" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -12723,7 +12745,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1">
+    <row r="45" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>76</v>
       </c>
@@ -12756,7 +12778,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1">
+    <row r="46" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -12789,7 +12811,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1">
+    <row r="47" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>85</v>
       </c>
@@ -12819,7 +12841,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1">
+    <row r="48" spans="1:18" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
@@ -12852,7 +12874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -12885,7 +12907,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -12918,7 +12940,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+    <row r="51" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
@@ -12951,7 +12973,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1">
+    <row r="52" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>78</v>
       </c>
@@ -12984,7 +13006,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1">
+    <row r="53" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>68</v>
       </c>
@@ -13017,7 +13039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1">
+    <row r="54" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
@@ -13050,7 +13072,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1">
+    <row r="55" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -13083,7 +13105,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+    <row r="56" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
@@ -13116,7 +13138,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+    <row r="57" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>117</v>
       </c>
@@ -13146,7 +13168,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+    <row r="58" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
@@ -13176,7 +13198,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+    <row r="59" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>123</v>
       </c>
@@ -13209,7 +13231,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+    <row r="60" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
@@ -13239,7 +13261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1">
+    <row r="61" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>91</v>
       </c>
@@ -13269,7 +13291,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+    <row r="62" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
@@ -13299,7 +13321,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+    <row r="63" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>135</v>
       </c>
@@ -13329,7 +13351,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1">
+    <row r="64" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>138</v>
       </c>
@@ -13362,7 +13384,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1">
+    <row r="65" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
@@ -13392,7 +13414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1">
+    <row r="66" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>147</v>
       </c>
@@ -13425,7 +13447,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1">
+    <row r="67" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>151</v>
       </c>
@@ -13455,7 +13477,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1">
+    <row r="68" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>155</v>
       </c>
@@ -13488,7 +13510,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1">
+    <row r="69" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>159</v>
       </c>
@@ -13518,7 +13540,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1">
+    <row r="70" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>162</v>
       </c>
@@ -13551,7 +13573,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1">
+    <row r="71" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>165</v>
       </c>
@@ -13581,7 +13603,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1">
+    <row r="72" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>168</v>
       </c>
@@ -13614,7 +13636,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1">
+    <row r="73" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
@@ -13647,7 +13669,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1">
+    <row r="74" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>174</v>
       </c>
@@ -13677,7 +13699,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1">
+    <row r="75" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>178</v>
       </c>
@@ -13707,7 +13729,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1">
+    <row r="76" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>181</v>
       </c>
@@ -13740,7 +13762,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1">
+    <row r="77" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>184</v>
       </c>
@@ -13773,7 +13795,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1">
+    <row r="78" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>187</v>
       </c>
@@ -13806,7 +13828,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1">
+    <row r="79" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>190</v>
       </c>
@@ -13839,7 +13861,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1">
+    <row r="80" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>193</v>
       </c>
@@ -13872,7 +13894,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1">
+    <row r="81" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>196</v>
       </c>
@@ -13905,7 +13927,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1">
+    <row r="82" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
@@ -13938,7 +13960,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1">
+    <row r="83" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>304</v>
       </c>
@@ -13971,7 +13993,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1">
+    <row r="84" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>308</v>
       </c>
@@ -14004,7 +14026,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1">
+    <row r="85" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>313</v>
       </c>
@@ -14034,7 +14056,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1">
+    <row r="86" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>317</v>
       </c>
@@ -14067,7 +14089,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1">
+    <row r="87" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>242</v>
       </c>
@@ -14097,7 +14119,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1">
+    <row r="88" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>324</v>
       </c>
@@ -14130,7 +14152,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1">
+    <row r="89" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>328</v>
       </c>
@@ -14163,7 +14185,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1">
+    <row r="90" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>332</v>
       </c>
@@ -14196,7 +14218,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1">
+    <row r="91" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>336</v>
       </c>
@@ -14229,7 +14251,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1">
+    <row r="92" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>340</v>
       </c>
@@ -14262,7 +14284,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1">
+    <row r="93" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>344</v>
       </c>
@@ -14295,7 +14317,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1">
+    <row r="94" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>348</v>
       </c>
@@ -14328,7 +14350,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1">
+    <row r="95" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>352</v>
       </c>
@@ -14358,7 +14380,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1">
+    <row r="96" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>356</v>
       </c>
@@ -14391,7 +14413,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1">
+    <row r="97" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>64</v>
       </c>
@@ -14421,7 +14443,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1">
+    <row r="98" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>70</v>
       </c>
@@ -14451,7 +14473,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1">
+    <row r="99" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>73</v>
       </c>
@@ -14481,7 +14503,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1">
+    <row r="100" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>76</v>
       </c>
@@ -14514,7 +14536,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75" customHeight="1">
+    <row r="101" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>79</v>
       </c>
@@ -14547,7 +14569,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1">
+    <row r="102" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>85</v>
       </c>
@@ -14580,7 +14602,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75" customHeight="1">
+    <row r="103" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>88</v>
       </c>
@@ -14613,7 +14635,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.75" customHeight="1">
+    <row r="104" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>83</v>
       </c>
@@ -14646,7 +14668,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75" customHeight="1">
+    <row r="105" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -14679,7 +14701,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15.75" customHeight="1">
+    <row r="106" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -14709,7 +14731,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1">
+    <row r="107" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>78</v>
       </c>
@@ -14742,7 +14764,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1">
+    <row r="108" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>68</v>
       </c>
@@ -14775,7 +14797,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1">
+    <row r="109" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -14808,7 +14830,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.75" customHeight="1">
+    <row r="110" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -14841,7 +14863,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1">
+    <row r="111" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
@@ -14874,7 +14896,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15.75" customHeight="1">
+    <row r="112" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>117</v>
       </c>
@@ -14907,7 +14929,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75" customHeight="1">
+    <row r="113" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>120</v>
       </c>
@@ -14940,7 +14962,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75" customHeight="1">
+    <row r="114" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>123</v>
       </c>
@@ -14973,7 +14995,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75" customHeight="1">
+    <row r="115" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>126</v>
       </c>
@@ -15006,7 +15028,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15.75" customHeight="1">
+    <row r="116" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>91</v>
       </c>
@@ -15039,7 +15061,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75" customHeight="1">
+    <row r="117" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>131</v>
       </c>
@@ -15069,7 +15091,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15.75" customHeight="1">
+    <row r="118" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
@@ -15102,7 +15124,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" customHeight="1">
+    <row r="119" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>138</v>
       </c>
@@ -15135,7 +15157,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15.75" customHeight="1">
+    <row r="120" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>141</v>
       </c>
@@ -15171,7 +15193,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" customHeight="1">
+    <row r="121" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>147</v>
       </c>
@@ -15204,7 +15226,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75" customHeight="1">
+    <row r="122" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>151</v>
       </c>
@@ -15237,7 +15259,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15.75" customHeight="1">
+    <row r="123" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>155</v>
       </c>
@@ -15270,7 +15292,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75" customHeight="1">
+    <row r="124" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>159</v>
       </c>
@@ -15303,7 +15325,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.75" customHeight="1">
+    <row r="125" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>162</v>
       </c>
@@ -15336,7 +15358,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1">
+    <row r="126" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>165</v>
       </c>
@@ -15369,7 +15391,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15.75" customHeight="1">
+    <row r="127" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>168</v>
       </c>
@@ -15402,7 +15424,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15.75" customHeight="1">
+    <row r="128" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>106</v>
       </c>
@@ -15435,7 +15457,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1">
+    <row r="129" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>174</v>
       </c>
@@ -15468,7 +15490,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1">
+    <row r="130" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>178</v>
       </c>
@@ -15501,7 +15523,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1">
+    <row r="131" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>181</v>
       </c>
@@ -15534,7 +15556,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1">
+    <row r="132" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>184</v>
       </c>
@@ -15567,7 +15589,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1">
+    <row r="133" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>187</v>
       </c>
@@ -15600,7 +15622,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" customHeight="1">
+    <row r="134" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>190</v>
       </c>
@@ -15633,7 +15655,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" customHeight="1">
+    <row r="135" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>193</v>
       </c>
@@ -15666,7 +15688,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" customHeight="1">
+    <row r="136" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>196</v>
       </c>
@@ -15699,7 +15721,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" customHeight="1">
+    <row r="137" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>300</v>
       </c>
@@ -15732,7 +15754,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" customHeight="1">
+    <row r="138" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>304</v>
       </c>
@@ -15765,7 +15787,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" customHeight="1">
+    <row r="139" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>308</v>
       </c>
@@ -15798,7 +15820,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" customHeight="1">
+    <row r="140" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>313</v>
       </c>
@@ -15828,7 +15850,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" customHeight="1">
+    <row r="141" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>317</v>
       </c>
@@ -15861,7 +15883,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" customHeight="1">
+    <row r="142" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>242</v>
       </c>
@@ -15894,7 +15916,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" customHeight="1">
+    <row r="143" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>64</v>
       </c>
@@ -15924,7 +15946,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1">
+    <row r="144" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>70</v>
       </c>
@@ -15954,7 +15976,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15.75" customHeight="1">
+    <row r="145" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>73</v>
       </c>
@@ -15984,7 +16006,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15.75" customHeight="1">
+    <row r="146" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>76</v>
       </c>
@@ -16017,7 +16039,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15.75" customHeight="1">
+    <row r="147" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>79</v>
       </c>
@@ -16050,7 +16072,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15.75" customHeight="1">
+    <row r="148" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>85</v>
       </c>
@@ -16083,7 +16105,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.75" customHeight="1">
+    <row r="149" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>88</v>
       </c>
@@ -16116,7 +16138,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15.75" customHeight="1">
+    <row r="150" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>83</v>
       </c>
@@ -16149,7 +16171,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" customHeight="1">
+    <row r="151" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>96</v>
       </c>
@@ -16182,7 +16204,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15.75" customHeight="1">
+    <row r="152" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>99</v>
       </c>
@@ -16212,7 +16234,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15.75" customHeight="1">
+    <row r="153" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>78</v>
       </c>
@@ -16245,7 +16267,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.75" customHeight="1">
+    <row r="154" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>68</v>
       </c>
@@ -16278,7 +16300,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.75" customHeight="1">
+    <row r="155" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>107</v>
       </c>
@@ -16311,7 +16333,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15.75" customHeight="1">
+    <row r="156" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>110</v>
       </c>
@@ -16344,7 +16366,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15.75" customHeight="1">
+    <row r="157" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>113</v>
       </c>
@@ -16377,7 +16399,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15.75" customHeight="1">
+    <row r="158" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>117</v>
       </c>
@@ -16410,7 +16432,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.75" customHeight="1">
+    <row r="159" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>120</v>
       </c>
@@ -16443,7 +16465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.75" customHeight="1">
+    <row r="160" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>123</v>
       </c>
@@ -16476,7 +16498,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1">
+    <row r="161" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>126</v>
       </c>
@@ -16509,7 +16531,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1">
+    <row r="162" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>91</v>
       </c>
@@ -16542,7 +16564,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1">
+    <row r="163" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>131</v>
       </c>
@@ -16572,7 +16594,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.75" customHeight="1">
+    <row r="164" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>135</v>
       </c>
@@ -16605,7 +16627,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75" customHeight="1">
+    <row r="165" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>138</v>
       </c>
@@ -16638,7 +16660,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.75" customHeight="1">
+    <row r="166" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>141</v>
       </c>
@@ -16674,7 +16696,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.75" customHeight="1">
+    <row r="167" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>147</v>
       </c>
@@ -16707,7 +16729,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15.75" customHeight="1">
+    <row r="168" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>151</v>
       </c>
@@ -16740,7 +16762,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.75" customHeight="1">
+    <row r="169" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>155</v>
       </c>
@@ -16773,7 +16795,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15.75" customHeight="1">
+    <row r="170" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>159</v>
       </c>
@@ -16806,7 +16828,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15.75" customHeight="1">
+    <row r="171" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -16839,7 +16861,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.75" customHeight="1">
+    <row r="172" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>165</v>
       </c>
@@ -16872,7 +16894,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1">
+    <row r="173" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>168</v>
       </c>
@@ -16905,7 +16927,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15.75" customHeight="1">
+    <row r="174" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>106</v>
       </c>
@@ -16938,7 +16960,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75" customHeight="1">
+    <row r="175" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -16971,7 +16993,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.75" customHeight="1">
+    <row r="176" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
@@ -17004,7 +17026,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15.75" customHeight="1">
+    <row r="177" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>181</v>
       </c>
@@ -17037,7 +17059,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15.75" customHeight="1">
+    <row r="178" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>184</v>
       </c>
@@ -17070,7 +17092,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15.75" customHeight="1">
+    <row r="179" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
@@ -17103,7 +17125,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15.75" customHeight="1">
+    <row r="180" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>190</v>
       </c>
@@ -17136,7 +17158,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.75" customHeight="1">
+    <row r="181" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>193</v>
       </c>
@@ -17169,7 +17191,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15.75" customHeight="1">
+    <row r="182" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>196</v>
       </c>
@@ -17202,7 +17224,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15.75" customHeight="1">
+    <row r="183" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>300</v>
       </c>
@@ -17235,7 +17257,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.75" customHeight="1">
+    <row r="184" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>304</v>
       </c>
@@ -17268,7 +17290,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.75" customHeight="1">
+    <row r="185" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>308</v>
       </c>
@@ -17301,7 +17323,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.75" customHeight="1">
+    <row r="186" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>313</v>
       </c>
@@ -17331,7 +17353,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15.75" customHeight="1">
+    <row r="187" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>317</v>
       </c>
@@ -17364,7 +17386,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.75" customHeight="1">
+    <row r="188" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>242</v>
       </c>
@@ -17397,7 +17419,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.75" customHeight="1">
+    <row r="189" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>64</v>
       </c>
@@ -17427,7 +17449,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.75" customHeight="1">
+    <row r="190" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>70</v>
       </c>
@@ -17457,7 +17479,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.75" customHeight="1">
+    <row r="191" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>73</v>
       </c>
@@ -17487,7 +17509,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15.75" customHeight="1">
+    <row r="192" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>76</v>
       </c>
@@ -17520,7 +17542,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15.75" customHeight="1">
+    <row r="193" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>79</v>
       </c>
@@ -17553,7 +17575,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15.75" customHeight="1">
+    <row r="194" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>85</v>
       </c>
@@ -17586,7 +17608,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15.75" customHeight="1">
+    <row r="195" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>88</v>
       </c>
@@ -17619,7 +17641,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15.75" customHeight="1">
+    <row r="196" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>83</v>
       </c>
@@ -17652,7 +17674,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="15.75" customHeight="1">
+    <row r="197" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>96</v>
       </c>
@@ -17685,7 +17707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.75" customHeight="1">
+    <row r="198" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>99</v>
       </c>
@@ -17715,7 +17737,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15.75" customHeight="1">
+    <row r="199" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>78</v>
       </c>
@@ -17748,7 +17770,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15.75" customHeight="1">
+    <row r="200" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>68</v>
       </c>
@@ -17781,7 +17803,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15.75" customHeight="1">
+    <row r="201" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>107</v>
       </c>
@@ -17814,7 +17836,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15.75" customHeight="1">
+    <row r="202" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>110</v>
       </c>
@@ -17847,7 +17869,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15.75" customHeight="1">
+    <row r="203" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>113</v>
       </c>
@@ -17880,7 +17902,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15.75" customHeight="1">
+    <row r="204" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>117</v>
       </c>
@@ -17913,7 +17935,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15.75" customHeight="1">
+    <row r="205" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>120</v>
       </c>
@@ -17946,7 +17968,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15.75" customHeight="1">
+    <row r="206" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>123</v>
       </c>
@@ -17979,7 +18001,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15.75" customHeight="1">
+    <row r="207" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>126</v>
       </c>
@@ -18012,7 +18034,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15.75" customHeight="1">
+    <row r="208" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>91</v>
       </c>
@@ -18045,7 +18067,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="15.75" customHeight="1">
+    <row r="209" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>131</v>
       </c>
@@ -18075,7 +18097,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15.75" customHeight="1">
+    <row r="210" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>135</v>
       </c>
@@ -18108,7 +18130,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15.75" customHeight="1">
+    <row r="211" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>138</v>
       </c>
@@ -18141,7 +18163,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15.75" customHeight="1">
+    <row r="212" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>141</v>
       </c>
@@ -18177,7 +18199,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15.75" customHeight="1">
+    <row r="213" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>147</v>
       </c>
@@ -18210,7 +18232,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15.75" customHeight="1">
+    <row r="214" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>151</v>
       </c>
@@ -18243,7 +18265,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15.75" customHeight="1">
+    <row r="215" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>155</v>
       </c>
@@ -18276,7 +18298,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="15.75" customHeight="1">
+    <row r="216" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>159</v>
       </c>
@@ -18309,7 +18331,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15.75" customHeight="1">
+    <row r="217" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>162</v>
       </c>
@@ -18342,7 +18364,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15.75" customHeight="1">
+    <row r="218" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>165</v>
       </c>
@@ -18375,7 +18397,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15.75" customHeight="1">
+    <row r="219" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>168</v>
       </c>
@@ -18408,7 +18430,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15.75" customHeight="1">
+    <row r="220" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>106</v>
       </c>
@@ -18441,7 +18463,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15.75" customHeight="1">
+    <row r="221" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>174</v>
       </c>
@@ -18474,7 +18496,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15.75" customHeight="1">
+    <row r="222" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>178</v>
       </c>
@@ -18507,7 +18529,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="15.75" customHeight="1">
+    <row r="223" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>181</v>
       </c>
@@ -18540,7 +18562,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15.75" customHeight="1">
+    <row r="224" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>184</v>
       </c>
@@ -18573,7 +18595,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15.75" customHeight="1">
+    <row r="225" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>187</v>
       </c>
@@ -18606,7 +18628,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15.75" customHeight="1">
+    <row r="226" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>190</v>
       </c>
@@ -18639,7 +18661,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15.75" customHeight="1">
+    <row r="227" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>193</v>
       </c>
@@ -18672,7 +18694,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15.75" customHeight="1">
+    <row r="228" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>196</v>
       </c>
@@ -18705,7 +18727,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="15.75" customHeight="1">
+    <row r="229" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>300</v>
       </c>
@@ -18735,7 +18757,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15.75" customHeight="1">
+    <row r="230" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>304</v>
       </c>
@@ -18768,7 +18790,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15.75" customHeight="1">
+    <row r="231" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>308</v>
       </c>
@@ -20379,7 +20401,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="15.75" customHeight="1">
+    <row r="281" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>64</v>
       </c>
@@ -20409,7 +20431,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15.75" customHeight="1">
+    <row r="282" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>70</v>
       </c>
@@ -20439,7 +20461,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15.75" customHeight="1">
+    <row r="283" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>73</v>
       </c>
@@ -20469,7 +20491,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15.75" customHeight="1">
+    <row r="284" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>76</v>
       </c>
@@ -20499,7 +20521,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="15.75" customHeight="1">
+    <row r="285" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>79</v>
       </c>
@@ -20532,7 +20554,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15.75" customHeight="1">
+    <row r="286" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>85</v>
       </c>
@@ -20565,7 +20587,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="15.75" customHeight="1">
+    <row r="287" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>88</v>
       </c>
@@ -20598,7 +20620,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15.75" customHeight="1">
+    <row r="288" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>83</v>
       </c>
@@ -20631,7 +20653,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="15.75" customHeight="1">
+    <row r="289" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>96</v>
       </c>
@@ -20664,7 +20686,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="15.75" customHeight="1">
+    <row r="290" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>99</v>
       </c>
@@ -20697,7 +20719,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="15.75" customHeight="1">
+    <row r="291" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>78</v>
       </c>
@@ -20730,7 +20752,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="15.75" customHeight="1">
+    <row r="292" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>68</v>
       </c>
@@ -20760,7 +20782,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="15.75" customHeight="1">
+    <row r="293" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>107</v>
       </c>
@@ -20793,7 +20815,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="15.75" customHeight="1">
+    <row r="294" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>110</v>
       </c>
@@ -20826,7 +20848,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="15.75" customHeight="1">
+    <row r="295" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>113</v>
       </c>
@@ -20859,7 +20881,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="15.75" customHeight="1">
+    <row r="296" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>117</v>
       </c>
@@ -20892,7 +20914,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="15.75" customHeight="1">
+    <row r="297" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>120</v>
       </c>
@@ -20925,7 +20947,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="15.75" customHeight="1">
+    <row r="298" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>123</v>
       </c>
@@ -20955,7 +20977,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="15.75" customHeight="1">
+    <row r="299" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>126</v>
       </c>
@@ -20988,7 +21010,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="15.75" customHeight="1">
+    <row r="300" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>91</v>
       </c>
@@ -21021,7 +21043,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="15.75" customHeight="1">
+    <row r="301" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>131</v>
       </c>
@@ -21054,7 +21076,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="15.75" customHeight="1">
+    <row r="302" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>135</v>
       </c>
@@ -21084,7 +21106,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="15.75" customHeight="1">
+    <row r="303" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="2" t="s">
         <v>138</v>
       </c>
@@ -21114,7 +21136,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="15.75" customHeight="1">
+    <row r="304" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="2" t="s">
         <v>141</v>
       </c>
@@ -21144,7 +21166,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="15.75" customHeight="1">
+    <row r="305" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="2" t="s">
         <v>147</v>
       </c>
@@ -21174,7 +21196,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="15.75" customHeight="1">
+    <row r="306" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A306" s="2" t="s">
         <v>151</v>
       </c>
@@ -21207,7 +21229,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="15.75" customHeight="1">
+    <row r="307" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A307" s="2" t="s">
         <v>64</v>
       </c>
@@ -21237,7 +21259,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="15.75" customHeight="1">
+    <row r="308" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A308" s="2" t="s">
         <v>70</v>
       </c>
@@ -21267,7 +21289,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="15.75" customHeight="1">
+    <row r="309" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="2" t="s">
         <v>73</v>
       </c>
@@ -21297,7 +21319,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="15.75" customHeight="1">
+    <row r="310" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="2" t="s">
         <v>76</v>
       </c>
@@ -21327,7 +21349,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="15.75" customHeight="1">
+    <row r="311" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A311" s="2" t="s">
         <v>79</v>
       </c>
@@ -21360,7 +21382,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="15.75" customHeight="1">
+    <row r="312" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A312" s="2" t="s">
         <v>85</v>
       </c>
@@ -21393,7 +21415,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="15.75" customHeight="1">
+    <row r="313" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="2" t="s">
         <v>88</v>
       </c>
@@ -21426,7 +21448,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="15.75" customHeight="1">
+    <row r="314" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="2" t="s">
         <v>83</v>
       </c>
@@ -21459,7 +21481,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="15.75" customHeight="1">
+    <row r="315" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="2" t="s">
         <v>96</v>
       </c>
@@ -21492,7 +21514,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="15.75" customHeight="1">
+    <row r="316" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A316" s="2" t="s">
         <v>99</v>
       </c>
@@ -21525,7 +21547,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="15.75" customHeight="1">
+    <row r="317" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A317" s="2" t="s">
         <v>78</v>
       </c>
@@ -21558,7 +21580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="15.75" customHeight="1">
+    <row r="318" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="2" t="s">
         <v>68</v>
       </c>
@@ -21591,7 +21613,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="15.75" customHeight="1">
+    <row r="319" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A319" s="2" t="s">
         <v>107</v>
       </c>
@@ -21624,7 +21646,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="15.75" customHeight="1">
+    <row r="320" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A320" s="2" t="s">
         <v>110</v>
       </c>
@@ -21657,7 +21679,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="15.75" customHeight="1">
+    <row r="321" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="2" t="s">
         <v>113</v>
       </c>
@@ -21690,7 +21712,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="15.75" customHeight="1">
+    <row r="322" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="2" t="s">
         <v>117</v>
       </c>
@@ -21723,7 +21745,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="15.75" customHeight="1">
+    <row r="323" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="2" t="s">
         <v>120</v>
       </c>
@@ -21756,7 +21778,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="15.75" customHeight="1">
+    <row r="324" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="2" t="s">
         <v>123</v>
       </c>
@@ -21789,7 +21811,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="15.75" customHeight="1">
+    <row r="325" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A325" s="2" t="s">
         <v>126</v>
       </c>
@@ -21822,7 +21844,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="15.75" customHeight="1">
+    <row r="326" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A326" s="2" t="s">
         <v>91</v>
       </c>
@@ -21855,7 +21877,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="15.75" customHeight="1">
+    <row r="327" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A327" s="2" t="s">
         <v>131</v>
       </c>
@@ -21885,7 +21907,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="15.75" customHeight="1">
+    <row r="328" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A328" s="2" t="s">
         <v>135</v>
       </c>
@@ -21915,7 +21937,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="15.75" customHeight="1">
+    <row r="329" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="2" t="s">
         <v>138</v>
       </c>
@@ -21948,7 +21970,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="15.75" customHeight="1">
+    <row r="330" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="2" t="s">
         <v>141</v>
       </c>
@@ -21981,7 +22003,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="15.75" customHeight="1">
+    <row r="331" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="2" t="s">
         <v>147</v>
       </c>
@@ -22014,7 +22036,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="15.75" customHeight="1">
+    <row r="332" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="2" t="s">
         <v>151</v>
       </c>
@@ -22047,7 +22069,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="15.75" customHeight="1">
+    <row r="333" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A333" s="2" t="s">
         <v>155</v>
       </c>
@@ -22080,7 +22102,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="15.75" customHeight="1">
+    <row r="334" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A334" s="2" t="s">
         <v>159</v>
       </c>
@@ -22110,7 +22132,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="15.75" customHeight="1">
+    <row r="335" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A335" s="2" t="s">
         <v>162</v>
       </c>
@@ -22143,7 +22165,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="15.75" customHeight="1">
+    <row r="336" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A336" s="2" t="s">
         <v>165</v>
       </c>
@@ -22176,7 +22198,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="15.75" customHeight="1">
+    <row r="337" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A337" s="2" t="s">
         <v>168</v>
       </c>
@@ -22212,7 +22234,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="15.75" customHeight="1">
+    <row r="338" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A338" s="2" t="s">
         <v>106</v>
       </c>
@@ -22245,7 +22267,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="15.75" customHeight="1">
+    <row r="339" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A339" s="2" t="s">
         <v>174</v>
       </c>
@@ -22275,7 +22297,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="15.75" customHeight="1">
+    <row r="340" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A340" s="2" t="s">
         <v>178</v>
       </c>
@@ -22308,7 +22330,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="15.75" customHeight="1">
+    <row r="341" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A341" s="2" t="s">
         <v>181</v>
       </c>
@@ -22832,7 +22854,13 @@
     <row r="830" ht="15.75" customHeight="1"/>
     <row r="831" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:S341" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:S341" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ADSL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -27445,10 +27473,10 @@
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1">
       <c r="A176" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>67</v>
@@ -27465,10 +27493,10 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1">
       <c r="A177" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>67</v>
@@ -27485,10 +27513,10 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1">
       <c r="A178" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>67</v>
@@ -27505,10 +27533,10 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1">
       <c r="A179" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>67</v>
@@ -27525,10 +27553,10 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1">
       <c r="A180" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>67</v>
@@ -27545,10 +27573,10 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1">
       <c r="A181" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>67</v>
@@ -27565,10 +27593,10 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1">
       <c r="A182" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>67</v>
@@ -27585,10 +27613,10 @@
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1">
       <c r="A183" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>67</v>
@@ -27605,10 +27633,10 @@
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1">
       <c r="A184" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>67</v>
@@ -27625,10 +27653,10 @@
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1">
       <c r="A185" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>67</v>
@@ -27645,10 +27673,10 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1">
       <c r="A186" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>67</v>
@@ -27665,10 +27693,10 @@
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1">
       <c r="A187" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>67</v>
@@ -27685,10 +27713,10 @@
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1">
       <c r="A188" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>67</v>
@@ -27705,10 +27733,10 @@
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1">
       <c r="A189" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>67</v>
@@ -27725,10 +27753,10 @@
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1">
       <c r="A190" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>67</v>
@@ -29405,10 +29433,10 @@
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1">
       <c r="A274" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>82</v>
@@ -29425,10 +29453,10 @@
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1">
       <c r="A275" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>82</v>
@@ -29445,10 +29473,10 @@
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1">
       <c r="A276" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>82</v>
@@ -29465,10 +29493,10 @@
     </row>
     <row r="277" spans="1:8" ht="15.75" customHeight="1">
       <c r="A277" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>82</v>
@@ -29485,10 +29513,10 @@
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1">
       <c r="A278" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>82</v>
@@ -29505,10 +29533,10 @@
     </row>
     <row r="279" spans="1:8" ht="15.75" customHeight="1">
       <c r="A279" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>82</v>
@@ -29525,10 +29553,10 @@
     </row>
     <row r="280" spans="1:8" ht="15.75" customHeight="1">
       <c r="A280" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>82</v>
@@ -29545,10 +29573,10 @@
     </row>
     <row r="281" spans="1:8" ht="15.75" customHeight="1">
       <c r="A281" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>82</v>
@@ -29565,10 +29593,10 @@
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1">
       <c r="A282" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>82</v>
@@ -29585,10 +29613,10 @@
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1">
       <c r="A283" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>82</v>
@@ -29605,10 +29633,10 @@
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1">
       <c r="A284" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>82</v>
@@ -29625,10 +29653,10 @@
     </row>
     <row r="285" spans="1:8" ht="15.75" customHeight="1">
       <c r="A285" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>82</v>
@@ -29645,10 +29673,10 @@
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1">
       <c r="A286" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>82</v>
@@ -29665,10 +29693,10 @@
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1">
       <c r="A287" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>82</v>
@@ -29685,10 +29713,10 @@
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1">
       <c r="A288" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>82</v>
@@ -31365,10 +31393,10 @@
     </row>
     <row r="372" spans="1:8" ht="15.75" customHeight="1">
       <c r="A372" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>67</v>
@@ -31385,10 +31413,10 @@
     </row>
     <row r="373" spans="1:8" ht="15.75" customHeight="1">
       <c r="A373" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>67</v>
@@ -31405,10 +31433,10 @@
     </row>
     <row r="374" spans="1:8" ht="15.75" customHeight="1">
       <c r="A374" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>67</v>
@@ -31425,10 +31453,10 @@
     </row>
     <row r="375" spans="1:8" ht="15.75" customHeight="1">
       <c r="A375" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>67</v>
@@ -31445,10 +31473,10 @@
     </row>
     <row r="376" spans="1:8" ht="15.75" customHeight="1">
       <c r="A376" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>67</v>
@@ -31465,10 +31493,10 @@
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>67</v>
@@ -31485,10 +31513,10 @@
     </row>
     <row r="378" spans="1:8" ht="15.75" customHeight="1">
       <c r="A378" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>67</v>
@@ -31505,10 +31533,10 @@
     </row>
     <row r="379" spans="1:8" ht="15.75" customHeight="1">
       <c r="A379" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>67</v>
@@ -31525,10 +31553,10 @@
     </row>
     <row r="380" spans="1:8" ht="15.75" customHeight="1">
       <c r="A380" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>67</v>
@@ -31545,10 +31573,10 @@
     </row>
     <row r="381" spans="1:8" ht="15.75" customHeight="1">
       <c r="A381" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>67</v>
@@ -31565,10 +31593,10 @@
     </row>
     <row r="382" spans="1:8" ht="15.75" customHeight="1">
       <c r="A382" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>67</v>
@@ -31585,10 +31613,10 @@
     </row>
     <row r="383" spans="1:8" ht="15.75" customHeight="1">
       <c r="A383" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>67</v>
@@ -31605,10 +31633,10 @@
     </row>
     <row r="384" spans="1:8" ht="15.75" customHeight="1">
       <c r="A384" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>67</v>
@@ -31625,10 +31653,10 @@
     </row>
     <row r="385" spans="1:8" ht="15.75" customHeight="1">
       <c r="A385" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>67</v>
@@ -31645,10 +31673,10 @@
     </row>
     <row r="386" spans="1:8" ht="15.75" customHeight="1">
       <c r="A386" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>67</v>
@@ -35268,11 +35296,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H790"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -35313,7 +35342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8" ht="16" hidden="1">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -35327,7 +35356,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8" ht="16" hidden="1">
       <c r="A3" s="2" t="s">
         <v>239</v>
       </c>
@@ -35341,7 +35370,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="16" hidden="1">
       <c r="A4" s="2" t="s">
         <v>316</v>
       </c>
@@ -35355,7 +35384,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="16" hidden="1">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -35369,7 +35398,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" ht="16" hidden="1">
       <c r="A6" s="2" t="s">
         <v>253</v>
       </c>
@@ -35383,7 +35412,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8" ht="16" hidden="1">
       <c r="A7" s="2" t="s">
         <v>265</v>
       </c>
@@ -35397,7 +35426,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:8" ht="16" hidden="1">
       <c r="A8" s="2" t="s">
         <v>268</v>
       </c>
@@ -35411,7 +35440,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" ht="16" hidden="1">
       <c r="A9" s="2" t="s">
         <v>259</v>
       </c>
@@ -35425,7 +35454,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="16" hidden="1">
       <c r="A10" s="2" t="s">
         <v>262</v>
       </c>
@@ -35439,7 +35468,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8" ht="16" hidden="1">
       <c r="A11" s="2" t="s">
         <v>247</v>
       </c>
@@ -35453,7 +35482,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8" ht="16" hidden="1">
       <c r="A12" s="2" t="s">
         <v>250</v>
       </c>
@@ -35467,7 +35496,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8" ht="16" hidden="1">
       <c r="A13" s="2" t="s">
         <v>230</v>
       </c>
@@ -35481,7 +35510,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32">
+    <row r="14" spans="1:8" ht="32" hidden="1">
       <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
@@ -35495,7 +35524,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8" ht="16" hidden="1">
       <c r="A15" s="2" t="s">
         <v>321</v>
       </c>
@@ -35509,7 +35538,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>256</v>
       </c>
@@ -35523,7 +35552,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>312</v>
       </c>
@@ -35537,7 +35566,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>287</v>
       </c>
@@ -35551,7 +35580,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>290</v>
       </c>
@@ -35565,7 +35594,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>293</v>
       </c>
@@ -35579,7 +35608,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>296</v>
       </c>
@@ -35593,7 +35622,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>323</v>
       </c>
@@ -35607,7 +35636,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>284</v>
       </c>
@@ -35621,7 +35650,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>281</v>
       </c>
@@ -35635,7 +35664,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>299</v>
       </c>
@@ -35649,7 +35678,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>303</v>
       </c>
@@ -35663,7 +35692,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>275</v>
       </c>
@@ -35677,7 +35706,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>278</v>
       </c>
@@ -35691,7 +35720,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>307</v>
       </c>
@@ -35705,7 +35734,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>243</v>
       </c>
@@ -35719,7 +35748,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>208</v>
       </c>
@@ -35733,7 +35762,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>209</v>
       </c>
@@ -35747,7 +35776,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>210</v>
       </c>
@@ -35761,7 +35790,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>359</v>
       </c>
@@ -35772,155 +35801,155 @@
         <v>1162</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="96" hidden="1">
       <c r="A44" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1162</v>
@@ -35929,12 +35958,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1162</v>
@@ -35943,12 +35972,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1162</v>
@@ -35957,12 +35986,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1162</v>
@@ -35971,12 +36000,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1162</v>
@@ -35985,12 +36014,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1162</v>
@@ -35999,12 +36028,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1162</v>
@@ -36013,12 +36042,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1162</v>
@@ -36027,12 +36056,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1162</v>
@@ -36041,26 +36070,26 @@
         <v>573</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1162</v>
@@ -36069,12 +36098,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1162</v>
@@ -36088,13 +36117,13 @@
         <v>407</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1">
@@ -36102,13 +36131,13 @@
         <v>404</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1">
@@ -36116,13 +36145,13 @@
         <v>431</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1">
@@ -36130,13 +36159,13 @@
         <v>386</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
@@ -36144,13 +36173,13 @@
         <v>385</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1">
@@ -36158,13 +36187,13 @@
         <v>434</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1">
@@ -36172,7 +36201,7 @@
         <v>372</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1162</v>
@@ -36186,7 +36215,7 @@
         <v>373</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1162</v>
@@ -36200,7 +36229,7 @@
         <v>374</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1162</v>
@@ -36214,13 +36243,13 @@
         <v>423</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1">
@@ -36228,27 +36257,27 @@
         <v>420</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="224">
       <c r="A68" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1260</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1">
@@ -36256,13 +36285,13 @@
         <v>399</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1260</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1">
@@ -36270,7 +36299,7 @@
         <v>383</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1162</v>
@@ -36284,13 +36313,13 @@
         <v>384</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1">
@@ -36298,13 +36327,13 @@
         <v>400</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1260</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1">
@@ -36312,13 +36341,13 @@
         <v>430</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1260</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
@@ -36326,13 +36355,13 @@
         <v>419</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
@@ -36340,13 +36369,13 @@
         <v>416</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1">
@@ -36354,13 +36383,13 @@
         <v>401</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1260</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
@@ -36368,7 +36397,7 @@
         <v>378</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1162</v>
@@ -36382,7 +36411,7 @@
         <v>381</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1162</v>
@@ -36396,13 +36425,13 @@
         <v>439</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1">
@@ -36410,13 +36439,13 @@
         <v>436</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1">
@@ -36424,13 +36453,13 @@
         <v>442</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1">
@@ -36438,13 +36467,13 @@
         <v>390</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1">
@@ -36452,13 +36481,13 @@
         <v>392</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1">
@@ -36466,13 +36495,13 @@
         <v>394</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
@@ -36480,13 +36509,13 @@
         <v>398</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1304</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1">
@@ -36494,13 +36523,13 @@
         <v>413</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
@@ -36508,13 +36537,13 @@
         <v>410</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1">
@@ -36522,7 +36551,7 @@
         <v>375</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1162</v>
@@ -36536,7 +36565,7 @@
         <v>376</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1162</v>
@@ -36550,7 +36579,7 @@
         <v>382</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1162</v>
@@ -36564,7 +36593,7 @@
         <v>377</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1162</v>
@@ -36578,7 +36607,7 @@
         <v>361</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1162</v>
@@ -36592,7 +36621,7 @@
         <v>364</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1162</v>
@@ -36606,7 +36635,7 @@
         <v>368</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1162</v>
@@ -36620,7 +36649,7 @@
         <v>369</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1162</v>
@@ -36634,7 +36663,7 @@
         <v>371</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1162</v>
@@ -36648,7 +36677,7 @@
         <v>366</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1162</v>
@@ -36662,7 +36691,7 @@
         <v>367</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1162</v>
@@ -36676,7 +36705,7 @@
         <v>370</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1162</v>
@@ -36690,7 +36719,7 @@
         <v>365</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1162</v>
@@ -36704,13 +36733,13 @@
         <v>387</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1">
@@ -36718,105 +36747,105 @@
         <v>388</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>487</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1162</v>
@@ -36825,12 +36854,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1">
+    <row r="110" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1162</v>
@@ -36839,12 +36868,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1">
+    <row r="111" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>454</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1162</v>
@@ -36853,68 +36882,68 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1">
+    <row r="112" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>485</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1162</v>
@@ -36923,96 +36952,96 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1">
+    <row r="117" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>486</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>482</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1162</v>
@@ -37021,12 +37050,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1">
+    <row r="124" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1162</v>
@@ -37035,138 +37064,138 @@
         <v>609</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1">
+    <row r="125" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>490</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>489</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>480</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>479</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1162</v>
@@ -37175,12 +37204,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1">
+    <row r="135" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1162</v>
@@ -37189,12 +37218,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1">
+    <row r="136" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1162</v>
@@ -37203,12 +37232,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1">
+    <row r="137" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1162</v>
@@ -37217,12 +37246,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1">
+    <row r="138" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1162</v>
@@ -37231,12 +37260,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1">
+    <row r="139" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1162</v>
@@ -37245,12 +37274,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1">
+    <row r="140" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1162</v>
@@ -37259,12 +37288,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1">
+    <row r="141" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1162</v>
@@ -37273,12 +37302,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1">
+    <row r="142" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1162</v>
@@ -37287,12 +37316,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1">
+    <row r="143" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1162</v>
@@ -37301,12 +37330,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1">
+    <row r="144" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1162</v>
@@ -37315,12 +37344,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1">
+    <row r="145" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1162</v>
@@ -37329,12 +37358,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1">
+    <row r="146" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1162</v>
@@ -37343,68 +37372,68 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1">
+    <row r="147" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>529</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>528</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>534</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>1162</v>
@@ -37413,40 +37442,40 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1">
+    <row r="152" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>513</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>512</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>501</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>1162</v>
@@ -37455,12 +37484,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1">
+    <row r="155" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>502</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1162</v>
@@ -37469,12 +37498,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1">
+    <row r="156" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>503</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>1162</v>
@@ -37483,26 +37512,26 @@
         <v>585</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1">
+    <row r="157" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>526</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1162</v>
@@ -37511,68 +37540,68 @@
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1">
+    <row r="159" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>511</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>533</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>532</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>1162</v>
@@ -37581,54 +37610,54 @@
         <v>605</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1">
+    <row r="164" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>545</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>548</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>552</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>508</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>1162</v>
@@ -37637,110 +37666,110 @@
         <v>609</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1">
+    <row r="168" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>524</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>518</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>525</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>531</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>1162</v>
@@ -37749,12 +37778,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1">
+    <row r="176" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>505</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1162</v>
@@ -37763,12 +37792,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1">
+    <row r="177" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>1162</v>
@@ -37777,12 +37806,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1">
+    <row r="178" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1162</v>
@@ -37791,40 +37820,40 @@
         <v>591</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1">
+    <row r="179" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>538</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>542</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>1162</v>
@@ -37833,12 +37862,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1">
+    <row r="182" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>493</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1162</v>
@@ -37847,12 +37876,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1">
+    <row r="183" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>497</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>1162</v>
@@ -37861,12 +37890,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1">
+    <row r="184" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>1162</v>
@@ -37875,12 +37904,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1">
+    <row r="185" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>500</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>1162</v>
@@ -37889,12 +37918,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1">
+    <row r="186" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>495</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>1162</v>
@@ -37903,12 +37932,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1">
+    <row r="187" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>1162</v>
@@ -37917,12 +37946,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1">
+    <row r="188" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1162</v>
@@ -37931,12 +37960,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1">
+    <row r="189" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>494</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1162</v>
@@ -37945,740 +37974,740 @@
         <v>554</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1">
+    <row r="190" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>514</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>515</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>583</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>584</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>579</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>615</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>619</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>604</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D200" s="19" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>605</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D201" s="19" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="32" hidden="1">
       <c r="A202" s="2" t="s">
         <v>601</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D202" s="19" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="176" hidden="1">
       <c r="A203" s="2" t="s">
         <v>582</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>657</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>664</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>608</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>631</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>612</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>634</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>638</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>628</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>598</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D213" s="19" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>660</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" customHeight="1">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" customHeight="1">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>622</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" customHeight="1">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>597</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" customHeight="1">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>667</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D218" s="8" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>589</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>590</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>653</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>647</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>595</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D224" s="19" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>591</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>557</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>556</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>555</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>568</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>571</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>565</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>576</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>573</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>554</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" customHeight="1">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>641</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15.75" customHeight="1">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="48" hidden="1">
       <c r="A239" s="2" t="s">
         <v>650</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" customHeight="1">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>625</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" customHeight="1">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>693</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" customHeight="1">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>671</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>1162</v>
@@ -38687,12 +38716,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.75" customHeight="1">
+    <row r="243" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>672</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>1162</v>
@@ -38701,12 +38730,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.75" customHeight="1">
+    <row r="244" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>673</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>1162</v>
@@ -38715,82 +38744,82 @@
         <v>585</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15.75" customHeight="1">
+    <row r="245" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>689</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" customHeight="1">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>697</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" customHeight="1">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>700</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" customHeight="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>686</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" customHeight="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>688</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" customHeight="1">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>674</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>1162</v>
@@ -38799,12 +38828,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" customHeight="1">
+    <row r="251" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>675</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>1162</v>
@@ -38813,12 +38842,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15.75" customHeight="1">
+    <row r="252" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>1162</v>
@@ -38827,12 +38856,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15.75" customHeight="1">
+    <row r="253" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>676</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>1162</v>
@@ -38841,12 +38870,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15.75" customHeight="1">
+    <row r="254" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>669</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>1162</v>
@@ -38855,54 +38884,54 @@
         <v>556</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.75" customHeight="1">
+    <row r="255" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>703</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15.75" customHeight="1">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>709</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="15.75" customHeight="1">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>706</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" customHeight="1">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>692</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1162</v>
@@ -38911,12 +38940,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15.75" customHeight="1">
+    <row r="259" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>1162</v>
@@ -38925,12 +38954,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75" customHeight="1">
+    <row r="260" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>683</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>1162</v>
@@ -38939,12 +38968,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.75" customHeight="1">
+    <row r="261" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>684</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1162</v>
@@ -38953,12 +38982,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.75" customHeight="1">
+    <row r="262" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>681</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>1162</v>
@@ -38967,12 +38996,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15.75" customHeight="1">
+    <row r="263" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>678</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>1162</v>
@@ -38981,12 +39010,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.75" customHeight="1">
+    <row r="264" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>682</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>1162</v>
@@ -38995,12 +39024,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15.75" customHeight="1">
+    <row r="265" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>677</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>1162</v>
@@ -39009,12 +39038,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15.75" customHeight="1">
+    <row r="266" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>670</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>1162</v>
@@ -39023,54 +39052,54 @@
         <v>554</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15.75" customHeight="1">
+    <row r="267" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>755</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="15.75" customHeight="1">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>733</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="15.75" customHeight="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>734</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15.75" customHeight="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>714</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>1162</v>
@@ -39079,12 +39108,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15.75" customHeight="1">
+    <row r="271" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>715</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>1162</v>
@@ -39093,12 +39122,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15.75" customHeight="1">
+    <row r="272" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>716</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>1162</v>
@@ -39107,194 +39136,194 @@
         <v>585</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1">
+    <row r="273" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>754</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>740</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" customHeight="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>737</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>743</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>741</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>742</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>744</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>747</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>748</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>730</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>728</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>732</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>749</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>717</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>1162</v>
@@ -39303,12 +39332,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1">
+    <row r="287" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>1162</v>
@@ -39317,12 +39346,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1">
+    <row r="288" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>720</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>1162</v>
@@ -39331,12 +39360,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1">
+    <row r="289" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>719</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>1162</v>
@@ -39345,12 +39374,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1">
+    <row r="290" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>712</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>1162</v>
@@ -39359,12 +39388,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1">
+    <row r="291" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>711</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>1162</v>
@@ -39373,12 +39402,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1">
+    <row r="292" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>725</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>1162</v>
@@ -39387,12 +39416,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1">
+    <row r="293" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>726</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>1162</v>
@@ -39401,12 +39430,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1">
+    <row r="294" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>722</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>1162</v>
@@ -39415,12 +39444,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1">
+    <row r="295" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>723</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>1162</v>
@@ -39429,12 +39458,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15.75" customHeight="1">
+    <row r="296" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>724</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>1162</v>
@@ -39443,12 +39472,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15.75" customHeight="1">
+    <row r="297" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>721</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>1162</v>
@@ -39457,12 +39486,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1">
+    <row r="298" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>713</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>1162</v>
@@ -39471,181 +39500,181 @@
         <v>554</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1">
+    <row r="299" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>751</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>753</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A302" s="18" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B302" s="18" t="str">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A302" s="17" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B302" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A302)</f>
         <v>Algorithm to derive ADADAS.AVISIT</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D302" s="18" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A303" s="18" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B303" s="18" t="str">
+      <c r="D302" s="17" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A303" s="17" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B303" s="17" t="str">
         <f t="shared" ref="B303:B305" si="0">CONCATENATE("Algorithm to derive ",A303)</f>
         <v>Algorithm to derive ADADAS.AVISITN</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D303" s="18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A304" s="18" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B304" s="18" t="str">
+      <c r="D303" s="17" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A304" s="17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B304" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Algorithm to derive ADADAS.ADY</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D304" s="19" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A305" s="18" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B305" s="18" t="str">
+      <c r="D304" s="18" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A305" s="17" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B305" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Algorithm to derive ADADAS.ADT</v>
       </c>
-      <c r="C305" s="18" t="s">
+      <c r="C305" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D305" s="19" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A306" s="18" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B306" s="18" t="str">
+      <c r="D305" s="18" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A306" s="17" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B306" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A306)</f>
         <v>Algorithm to derive ADADAS.BASE</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D306" s="18" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A307" s="18" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B307" s="18" t="str">
+      <c r="D306" s="17" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A307" s="17" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B307" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A307)</f>
         <v>Algorithm to derive ADADAS.CHG</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D307" s="18" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A308" s="18" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B308" s="18" t="str">
+      <c r="D307" s="17" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A308" s="17" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B308" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A308)</f>
         <v>Algorithm to derive ADADAS.PCHG</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D308" s="18" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A309" s="18" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B309" s="18" t="str">
+      <c r="D308" s="17" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A309" s="17" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B309" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A309)</f>
         <v>Algorithm to derive ADADAS.ANL01FL</v>
       </c>
-      <c r="C309" s="18" t="s">
+      <c r="C309" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D309" s="19" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A310" s="18" t="s">
+      <c r="D309" s="18" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A310" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B310" s="18" t="str">
+      <c r="B310" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A310)</f>
         <v>Algorithm to derive ADADAS.DTYPE</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D310" s="18" t="s">
-        <v>1673</v>
+      <c r="D310" s="17" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15.75" customHeight="1"/>
@@ -40129,7 +40158,58 @@
     <row r="789" ht="15.75" customHeight="1"/>
     <row r="790" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H310" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:H310" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ADLBC.A1HI"/>
+        <filter val="ADLBC.A1LO"/>
+        <filter val="ADLBC.ABLFL"/>
+        <filter val="ADLBC.ADT"/>
+        <filter val="ADLBC.ADY"/>
+        <filter val="ADLBC.AENTMTFL"/>
+        <filter val="ADLBC.AGE"/>
+        <filter val="ADLBC.AGEGR1"/>
+        <filter val="ADLBC.AGEGR1N"/>
+        <filter val="ADLBC.ALBTRVAL"/>
+        <filter val="ADLBC.ANL01FL"/>
+        <filter val="ADLBC.ANRIND"/>
+        <filter val="ADLBC.AVAL"/>
+        <filter val="ADLBC.AVISIT"/>
+        <filter val="ADLBC.AVISITN"/>
+        <filter val="ADLBC.BASE"/>
+        <filter val="ADLBC.BNRIND"/>
+        <filter val="ADLBC.BR2A1HI"/>
+        <filter val="ADLBC.BR2A1LO"/>
+        <filter val="ADLBC.CHG"/>
+        <filter val="ADLBC.COMP24FL"/>
+        <filter val="ADLBC.DSRAEFL"/>
+        <filter val="ADLBC.LBNRIND"/>
+        <filter val="ADLBC.LBSEQ"/>
+        <filter val="ADLBC.LBSTRESN"/>
+        <filter val="ADLBC.PARAM"/>
+        <filter val="ADLBC.PARAMCD"/>
+        <filter val="ADLBC.PARAMN"/>
+        <filter val="ADLBC.PARCAT1"/>
+        <filter val="ADLBC.R2A1HI"/>
+        <filter val="ADLBC.R2A1LO"/>
+        <filter val="ADLBC.RACE"/>
+        <filter val="ADLBC.RACEN"/>
+        <filter val="ADLBC.SAFFL"/>
+        <filter val="ADLBC.SEX"/>
+        <filter val="ADLBC.STUDYID"/>
+        <filter val="ADLBC.SUBJID"/>
+        <filter val="ADLBC.TRTA"/>
+        <filter val="ADLBC.TRTAN"/>
+        <filter val="ADLBC.TRTEDT"/>
+        <filter val="ADLBC.TRTP"/>
+        <filter val="ADLBC.TRTPN"/>
+        <filter val="ADLBC.TRTSDT"/>
+        <filter val="ADLBC.USUBJID"/>
+        <filter val="ADLBC.VISIT"/>
+        <filter val="ADLBC.VISITNUM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -40163,22 +40243,22 @@
   <sheetData>
     <row r="1" spans="1:29" ht="48">
       <c r="A1" s="6" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -40206,7 +40286,7 @@
     </row>
     <row r="2" spans="1:29" ht="196">
       <c r="A2" s="8" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -40216,10 +40296,10 @@
         <v>580</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -40247,10 +40327,10 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>39</v>
@@ -40259,10 +40339,10 @@
         <v>577</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -40290,10 +40370,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -40302,10 +40382,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -40333,10 +40413,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -40345,10 +40425,10 @@
         <v>613</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -40376,10 +40456,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>39</v>
@@ -40388,10 +40468,10 @@
         <v>626</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -40419,10 +40499,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -40431,10 +40511,10 @@
         <v>665</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -40462,10 +40542,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -40474,10 +40554,10 @@
         <v>616</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -40505,22 +40585,22 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="8" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -40548,22 +40628,22 @@
     </row>
     <row r="10" spans="1:29" ht="32">
       <c r="A10" s="15" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -40591,22 +40671,22 @@
     </row>
     <row r="11" spans="1:29" ht="144">
       <c r="A11" s="15" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -71304,7 +71384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -71336,15 +71416,15 @@
         <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -71352,55 +71432,55 @@
         <v>158</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/metadata/specs.xlsx
+++ b/metadata/specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC596A-F463-E147-829A-71860B7FE1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27411EB8-1672-4F2D-BF4B-0BECF455C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="1717">
   <si>
     <t>Attribute</t>
   </si>
@@ -3547,9 +3551,6 @@
     <t>Algorithm to derive ADAE.ADURN</t>
   </si>
   <si>
-    <t>ADURN=AENDT-ASTDT+1</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADAE.ADURU</t>
   </si>
   <si>
@@ -3877,9 +3878,6 @@
     <t>Algorithm to derive ADLBC.ALBTRVAL</t>
   </si>
   <si>
-    <t>Maximum of [LBSTRESN-(1.5*ULN)] and [(.5*LLN) - LBSTRESN]</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADLBC.ANL01FL</t>
   </si>
   <si>
@@ -3907,13 +3905,7 @@
     <t>Algorithm to derive ADLBC.BR2A1HI</t>
   </si>
   <si>
-    <t>AVAL / A1LO at baseline</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADLBC.BR2A1LO</t>
-  </si>
-  <si>
-    <t>AVAL / A1HI at baseline</t>
   </si>
   <si>
     <t>Algorithm to derive ADLBC.CHG</t>
@@ -4432,18 +4424,9 @@
     <t>DS.DSDECOD where DSCAT='DISPOSITION EVENT'</t>
   </si>
   <si>
-    <t>Algorithm to derive ADSL.DCREASCD</t>
-  </si>
-  <si>
-    <t>Grouping of DCDECOD values to support summarizing study completion status and reason for discontinuation</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.DISCONFL</t>
   </si>
   <si>
-    <t>Y if DCREASCD ^= 'Completed'. Null otherwise</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.DISONSDT</t>
   </si>
   <si>
@@ -4451,9 +4434,6 @@
   </si>
   <si>
     <t>Algorithm to derive ADSL.DSRAEFL</t>
-  </si>
-  <si>
-    <t>Y if DCREASCD='Adverse Event'. Null otherwise</t>
   </si>
   <si>
     <t>Algorithm to derive ADSL.DTHFL</t>
@@ -4638,9 +4618,6 @@
     <t>Algorithm to derive ADSL.VISNUMEN</t>
   </si>
   <si>
-    <t>if DS.VISITNUM=13 where DSTERM='PROTCOL COMPLETED' then VISNUMEN=12, otherwise VISNUMEN=DS.VISITNUM where DSTERM='PROTCOL COMPLETED'</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADSL.WEIGHTBL</t>
   </si>
   <si>
@@ -4782,9 +4759,6 @@
     <t>Algorithm to derive ADVS.ANL01FL</t>
   </si>
   <si>
-    <t>ANL01FL="Y" if the value is to be included in a per visit analysis. ANL01FL is missing for values from SDTM screening visits, unscheduled visits, and event related visits, e.g. "AMBUL ECG REMOVAL"</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADVS.ATPT</t>
   </si>
   <si>
@@ -4804,9 +4778,6 @@
   </si>
   <si>
     <t>Algorithm to derive ADVS.AVISIT</t>
-  </si>
-  <si>
-    <t>Derived from VS.VISIT for values to be included in a per visit analysis. AVISIT is missing for values from SDTM screening visits, unscheduled visits, and event related visits, e.g. "AMBUL ECG REMOVAL", which are not included in a per visit analysis.</t>
   </si>
   <si>
     <t>Algorithm to derive ADVS.AVISITN</t>
@@ -5243,9 +5214,6 @@
     <t>ADADAS.AVISIT</t>
   </si>
   <si>
-    <t>Derived based on windowing algorithm described in SAP, Section 8.2</t>
-  </si>
-  <si>
     <t>ADADAS.ADY</t>
   </si>
   <si>
@@ -5402,9 +5370,6 @@
     <t>For ARMN=0 or 1: CUMDOSE=TRT01PN*TRTDUR. --- For ARMN=2: CUMDOSE will be based on 54mg per day for the # of days subj was in 1st dosing interval (i.e., visit4date-TRTSDT+1 if 1st interval completed, TRTEDT-TRTSDT+1 if subj discontinued &lt;=visit 4 and &gt; visit 3), 81mg per day for the # of days subj was in 2nd dosing interval (i.e., visit12date-visit4date if 2nd interval completed, TRTEDT-visit4date if subj discontinued &lt;= visit 12 and &gt; visit 4), and 54mg per day for the # of days subj was in 3rd dosing interval (i.e., TRTEDT - visit12date if subj continued after visit 12).</t>
   </si>
   <si>
-    <t>Refer to SAP, Section 7.1 - if not pooled then SITEGR1=SITEID. If pooled, SITEGR1 will be 900</t>
-  </si>
-  <si>
     <t>Filter for CQ01NAM='DERMATOLOGIC EVENTS' and TRTEMFL='Y' and sort by Subject (USUBJID), Start Date (ASTDT), and Sequence Number (AESEQ) and flag the first record (set AOCC01FL='Y') within each Subject (Flag First Treatment Emergent Dermatological Event for Time to Event Analysis)</t>
   </si>
   <si>
@@ -5414,28 +5379,576 @@
     <t>Set to 'CHEM'</t>
   </si>
   <si>
-    <t>Set to ANRIND where ABLFL='Y'</t>
-  </si>
-  <si>
     <t>Set to  AVAL where ABLFL='Y'</t>
   </si>
   <si>
-    <t>Set to "NORMAL" if AVAL is greater or equal ANRLO and less than or equal ANRHI; or if AVAL is greater than or equal ANRLO and ANRHI is missing; or if AVAL is less than or equal ANRHI and ANRLO is missing
-Set to "LOW" if AVAL is less than ANRLO and either A1LO is missing or AVAL is greater than or equal A1LO
-Set to "HIGH" if AVAL is greater than ANRHI and either A1HI is missing or AVAL is less than or equal A1HI
-Set to "LOW LOW" if AVAL is less than A1LO
-Set to "HIGH HIGH" if AVAL is greater than A1HI</t>
+    <t>Consider the threshold range (defined as significantly beyond the normal range, i.e., &gt;1.5*ULN or &lt;.5*LLN), 
+if the AVAL is &gt; 1.5*A1HI then set to 'H', 
+else if AVAL is &lt;.5*A1LO then set to 'L', 
+else if AVAL between (.5*A1LO and 1.5*A1HI) then set to 'N',
+else if AVAL is missing then set to 'N'</t>
+  </si>
+  <si>
+    <t>Consider the threshold range (defined as significantly beyond the normal range, i.e., &gt;1.5*ULN or &lt;.5*LLN), 
+if the BASE is &gt; 1.5*A1HI then set to 'H', 
+else if BASE is &lt;.5*A1LO then set to 'L', 
+else if BASE between (.5*A1LO and 1.5*A1HI) then set to 'N',
+else if BASE is missing then set to 'N'</t>
+  </si>
+  <si>
+    <t>Set to 6, if RACE= 'AMERICAN INDIAN OR ALASKA NATIVE' ,
+else set to 3 if RACE = 'ASIAN' ,
+else set to 2 if RACE = 'BLACK OR AFRICAN AMERICAN' ,
+else set to 1 if RACE = 'WHITE'</t>
+  </si>
+  <si>
+    <r>
+      <t>Maximum of [(1.5*ULN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LBSTRESN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>] and [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LBSTRESN-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(.5*LLN)]</t>
+    </r>
+  </si>
+  <si>
+    <t>LB.VISITNUM except where VISITNUM in (6, 201)</t>
+  </si>
+  <si>
+    <t>LB.VISIT except for VISIT in ('AMBUL ECG REMOVAL','RETRIEVAL')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LB.VISIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>except for VISIT in ('AMBUL ECG REMOVAL','RETRIEVAL')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LB.VISITNUM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>except where VISITNUM in (6, 201)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Numeric code for AVISIT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Derive the "End of Treatment' records (last visit on or before Week 24 visit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analysis Visit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Derive the "End of Treatment' records (last visit on or before Week 24 visit) and set to 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BASE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ A1LO at baseline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / A1HI at baseline</t>
+    </r>
+  </si>
+  <si>
+    <t>Set to 'Y', post baseline record per subject per parameter where the record has the maximum ALBTRVAL, and within the ALBTRVAL if there are multiple records with same ALBTRVAL then flag the earliest visit record. Note: the ALBTRVAL should not be missing when deriving the ANL01FL</t>
+  </si>
+  <si>
+    <t>Consider the threshold range (defined as significantly beyond the normal range, i.e., &gt;1.5*ULN or &lt;.5*LLN), 
+if the AVAL is &gt; 1.5*A1HI then set to 'H', 
+else if AVAL is &lt;.5*A1LO then set to 'L', 
+else if AVAL between (.5*A1LO and 1.5*A1HI) then set to 'N',
+else if AVAL is missing then set to 'N'
+If A1LO and A1HI are missing and LB.LBNRIND=='ABNORMAL' then  set to 'H'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider the threshold range (defined as significantly beyond the normal range, i.e., &gt;1.5*ULN or &lt;.5*LLN), 
+if the BASE is &gt; 1.5*A1HI then set to 'H', 
+else if BASE is &lt;.5*A1LO then set to 'L', 
+else if BASE between (.5*A1LO and 1.5*A1HI) then set to 'N',
+else if BASE is missing then set to 'N'
+if derived BNRIND = 'N' and LBNRIND='ABNORMAL' then set to 'H' </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BASE /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A1LO at baseline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADURN=AENDT-ASTDT+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: Use the non-imputed ASTDT date for the derivation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Set to DECODE of PARAMCD_ADVS (codelist) based on VS.VSTESTCD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ANL01FL="Y" if the value is to be included in a per visit analysis. ANL01FL is missing for values from SDTM screening visits, unscheduled visits, and event related visits, e.g. "AMBUL ECG REMOVAL"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: Set to 'Y' per subject per parameter per visit and analysis timepoint and if AVISIT is not missing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from VS.VISIT for values to be included in a per visit analysis. AVISIT is missing for values from SDTM screening visits, unscheduled visits, and event related visits, e.g. "AMBUL ECG REMOVAL", which are not included in a per visit analysis.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Derive the EOT records per subject per parameter per analysis timepoint, where the ABLFL is missing and AVISIT is not missing and AVISIT&gt;=4 and AVISIT&lt;=26, set the EOT record to 'End of Treatment'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Numeric code for AVISIT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Derive the EOT records per subject per parameter per analysis timepoint, where the ABLFL is missing and AVISIT is not missing and AVISIT&gt;=4 and AVISIT&lt;=26, set the EOT record to 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Numeric code for Parameter 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: Check the codelist PARAMN_ADVS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived based on windowing algorithm described in SAP, Section 8.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: check ADAS-Cog CIBIC+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if DS.VISITNUM=13 where DSTERM='PROTCOL COMPLETED' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">or 'ADVERSE EVENT' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>then VISNUMEN=12, otherwise VISNUMEN=DS.VISITNUM where DSTERM='PROTCOL COMPLETED'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ADSL.DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REAS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Algorithm to derive ADSL.DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REAS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer to SAP, Section 7.1 - if not pooled then SITEGR1=SITEID. If pooled, SITEGR1 will be 900
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: If SITEID in (715,717) then set to 900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grouping of DCDECOD values to support summarizing study completion status and reason for discontinuation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if DSTERM is not equal to 'PROTOCOL ENTRY CRITERIA NOT MET' then derive DCSREAS by following the below logic
+if DCDECOD = "ADVERSE EVENT"  then set to  "Adverse Event",
+else if DCDECOD = "STUDY TERMINATED BY SPONSOR" then set to "Sponsor Decision",
+else if DCDECOD = "DEATH" then set to "Death",
+else if DCDECOD = "WITHDRAWAL BY SUBJECT" then set to "Withdrew Consent",
+else if DCDECOD = "PHYSICIAN DECISION" then set to "Physician Decision",
+else if DCDECOD = "PROTOCOL VIOLATION" then set to "Protocol Violation",
+else if DCDECOD = "LOST TO FOLLOW-UP" then set to "Lost to Follow-up",
+else if DCDECOD = "LACK OF EFFICACY" then set to "Lack of Efficacy". 
+if DSTERM is equal to 'PROTOCOL ENTRY CRITERIA NOT MET' then derive DCSREAS by following the below logic
+ if DCDECOD = "PROTOCOL VIOLATION" then set to "I/E Not Met".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y if DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>REAS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ^= 'Completed' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>and is not missing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Null otherwise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y if DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>REAS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>='Adverse Event'. Null otherwise</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5522,6 +6035,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -5580,46 +6121,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5837,11 +6395,11 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6891,12 +7449,12 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6904,21 +7462,21 @@
         <v>757</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7920,10 +8478,10 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7931,7 +8489,7 @@
         <v>757</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1161</v>
@@ -8939,24 +9497,24 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="82" customWidth="1"/>
-    <col min="8" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="26" width="8.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>757</v>
@@ -8965,34 +9523,34 @@
         <v>1158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>60</v>
@@ -9997,18 +10555,18 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10051,7 +10609,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -10074,7 +10632,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -10097,7 +10655,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -10120,7 +10678,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -10143,7 +10701,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
@@ -10166,7 +10724,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -10189,7 +10747,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -10212,7 +10770,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
@@ -11220,29 +11778,29 @@
   <dimension ref="A1:S831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272:XFD272"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="19" width="15.5" customWidth="1"/>
-    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -11328,7 +11886,7 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="str">
@@ -11360,7 +11918,7 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13" t="str">
@@ -11392,7 +11950,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13" t="str">
@@ -11424,7 +11982,7 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13" t="str">
@@ -11459,7 +12017,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="str">
@@ -11494,7 +12052,7 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13" t="str">
@@ -11529,11 +12087,11 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="9" spans="1:19" hidden="1">
@@ -11563,7 +12121,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
@@ -11594,7 +12152,7 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13" t="str">
@@ -11629,7 +12187,7 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13" t="str">
@@ -11664,7 +12222,7 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13" t="str">
@@ -11699,7 +12257,7 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13" t="str">
@@ -11734,7 +12292,7 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13" t="str">
@@ -11769,7 +12327,7 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13" t="str">
@@ -11804,7 +12362,7 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" s="13" t="str">
@@ -11839,7 +12397,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13" t="str">
@@ -11874,7 +12432,7 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13" t="str">
@@ -11944,12 +12502,12 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="R20" s="13" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -11979,7 +12537,7 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13" t="str">
@@ -12017,7 +12575,7 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13" t="str">
@@ -12119,7 +12677,7 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -12154,11 +12712,11 @@
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12188,12 +12746,12 @@
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
       <c r="R27" s="13" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12220,7 +12778,7 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -12351,11 +12909,11 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12452,12 +13010,12 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="R35" s="13" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12484,12 +13042,12 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="R36" s="13" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12516,12 +13074,12 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="R37" s="13" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12548,12 +13106,12 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="R38" s="13" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12580,12 +13138,12 @@
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="R39" s="13" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12615,12 +13173,12 @@
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="13" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
       <c r="R40" s="13" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" hidden="1" customHeight="1">
@@ -12647,7 +13205,7 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="13" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13" t="str">
@@ -18823,7 +19381,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15.75" customHeight="1">
+    <row r="232" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>64</v>
       </c>
@@ -18853,7 +19411,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15.75" customHeight="1">
+    <row r="233" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>70</v>
       </c>
@@ -18883,7 +19441,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15.75" customHeight="1">
+    <row r="234" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>73</v>
       </c>
@@ -18913,7 +19471,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="15.75" customHeight="1">
+    <row r="235" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>76</v>
       </c>
@@ -18943,7 +19501,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15.75" customHeight="1">
+    <row r="236" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>79</v>
       </c>
@@ -18973,7 +19531,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15.75" customHeight="1">
+    <row r="237" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>85</v>
       </c>
@@ -19006,7 +19564,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15.75" customHeight="1">
+    <row r="238" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>88</v>
       </c>
@@ -19039,7 +19597,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15.75" customHeight="1">
+    <row r="239" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>83</v>
       </c>
@@ -19072,7 +19630,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15.75" customHeight="1">
+    <row r="240" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>96</v>
       </c>
@@ -19105,7 +19663,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15.75" customHeight="1">
+    <row r="241" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>99</v>
       </c>
@@ -19138,7 +19696,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15.75" customHeight="1">
+    <row r="242" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>78</v>
       </c>
@@ -19171,7 +19729,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15.75" customHeight="1">
+    <row r="243" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>68</v>
       </c>
@@ -19204,7 +19762,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15.75" customHeight="1">
+    <row r="244" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>107</v>
       </c>
@@ -19234,7 +19792,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15.75" customHeight="1">
+    <row r="245" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>110</v>
       </c>
@@ -19267,7 +19825,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15.75" customHeight="1">
+    <row r="246" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>113</v>
       </c>
@@ -19300,7 +19858,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15.75" customHeight="1">
+    <row r="247" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>117</v>
       </c>
@@ -19330,7 +19888,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15.75" customHeight="1">
+    <row r="248" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>120</v>
       </c>
@@ -19363,7 +19921,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="15.75" customHeight="1">
+    <row r="249" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>123</v>
       </c>
@@ -19396,7 +19954,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15.75" customHeight="1">
+    <row r="250" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>126</v>
       </c>
@@ -19429,7 +19987,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15.75" customHeight="1">
+    <row r="251" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>91</v>
       </c>
@@ -19462,7 +20020,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1">
+    <row r="252" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>131</v>
       </c>
@@ -19495,7 +20053,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15.75" customHeight="1">
+    <row r="253" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>135</v>
       </c>
@@ -19528,7 +20086,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15.75" customHeight="1">
+    <row r="254" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>138</v>
       </c>
@@ -19561,7 +20119,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="15.75" customHeight="1">
+    <row r="255" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>141</v>
       </c>
@@ -19594,7 +20152,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15.75" customHeight="1">
+    <row r="256" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>147</v>
       </c>
@@ -19627,7 +20185,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15.75" customHeight="1">
+    <row r="257" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>151</v>
       </c>
@@ -19660,7 +20218,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15.75" customHeight="1">
+    <row r="258" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>155</v>
       </c>
@@ -19693,7 +20251,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15.75" customHeight="1">
+    <row r="259" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>159</v>
       </c>
@@ -19726,7 +20284,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15.75" customHeight="1">
+    <row r="260" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>162</v>
       </c>
@@ -19759,7 +20317,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="15.75" customHeight="1">
+    <row r="261" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>165</v>
       </c>
@@ -19792,7 +20350,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15.75" customHeight="1">
+    <row r="262" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>168</v>
       </c>
@@ -19825,7 +20383,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15.75" customHeight="1">
+    <row r="263" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>106</v>
       </c>
@@ -19858,7 +20416,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15.75" customHeight="1">
+    <row r="264" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>174</v>
       </c>
@@ -19891,7 +20449,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15.75" customHeight="1">
+    <row r="265" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>178</v>
       </c>
@@ -19924,7 +20482,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15.75" customHeight="1">
+    <row r="266" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>181</v>
       </c>
@@ -19957,7 +20515,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15.75" customHeight="1">
+    <row r="267" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>184</v>
       </c>
@@ -19990,7 +20548,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="15.75" customHeight="1">
+    <row r="268" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>187</v>
       </c>
@@ -20020,7 +20578,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15.75" customHeight="1">
+    <row r="269" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>190</v>
       </c>
@@ -20053,7 +20611,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15.75" customHeight="1">
+    <row r="270" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>193</v>
       </c>
@@ -20086,7 +20644,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15.75" customHeight="1">
+    <row r="271" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>196</v>
       </c>
@@ -20119,7 +20677,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15.75" customHeight="1">
+    <row r="272" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>300</v>
       </c>
@@ -20152,7 +20710,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15.75" customHeight="1">
+    <row r="273" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>304</v>
       </c>
@@ -20182,7 +20740,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="15.75" customHeight="1">
+    <row r="274" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>308</v>
       </c>
@@ -20212,7 +20770,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="15.75" customHeight="1">
+    <row r="275" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -20242,7 +20800,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="15.75" customHeight="1">
+    <row r="276" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>317</v>
       </c>
@@ -20275,7 +20833,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15.75" customHeight="1">
+    <row r="277" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>242</v>
       </c>
@@ -20308,7 +20866,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="15.75" customHeight="1">
+    <row r="278" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>324</v>
       </c>
@@ -20338,7 +20896,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15.75" customHeight="1">
+    <row r="279" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>328</v>
       </c>
@@ -20371,7 +20929,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="15.75" customHeight="1">
+    <row r="280" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>332</v>
       </c>
@@ -20401,7 +20959,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="281" spans="1:15" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>64</v>
       </c>
@@ -20431,7 +20989,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="282" spans="1:15" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>70</v>
       </c>
@@ -20461,7 +21019,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="283" spans="1:15" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>73</v>
       </c>
@@ -20491,7 +21049,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="284" spans="1:15" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>76</v>
       </c>
@@ -20521,7 +21079,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="285" spans="1:15" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>79</v>
       </c>
@@ -20554,7 +21112,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="286" spans="1:15" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>85</v>
       </c>
@@ -20587,7 +21145,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="287" spans="1:15" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>88</v>
       </c>
@@ -20620,7 +21178,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="288" spans="1:15" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>83</v>
       </c>
@@ -20653,7 +21211,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="289" spans="1:15" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>96</v>
       </c>
@@ -20686,7 +21244,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="290" spans="1:15" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>99</v>
       </c>
@@ -20719,7 +21277,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="291" spans="1:15" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>78</v>
       </c>
@@ -20752,7 +21310,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="292" spans="1:15" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>68</v>
       </c>
@@ -20782,7 +21340,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="293" spans="1:15" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>107</v>
       </c>
@@ -20815,7 +21373,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="294" spans="1:15" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>110</v>
       </c>
@@ -20848,7 +21406,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="295" spans="1:15" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>113</v>
       </c>
@@ -20881,7 +21439,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="296" spans="1:15" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>117</v>
       </c>
@@ -20914,7 +21472,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="297" spans="1:15" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>120</v>
       </c>
@@ -20947,7 +21505,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="298" spans="1:15" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>123</v>
       </c>
@@ -20977,7 +21535,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="299" spans="1:15" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>126</v>
       </c>
@@ -21010,7 +21568,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="300" spans="1:15" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>91</v>
       </c>
@@ -21043,7 +21601,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="301" spans="1:15" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>131</v>
       </c>
@@ -21076,7 +21634,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="302" spans="1:15" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>135</v>
       </c>
@@ -21106,7 +21664,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="303" spans="1:15" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
         <v>138</v>
       </c>
@@ -21136,7 +21694,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="304" spans="1:15" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
         <v>141</v>
       </c>
@@ -21166,7 +21724,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="305" spans="1:15" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
         <v>147</v>
       </c>
@@ -21196,7 +21754,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="306" spans="1:15" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
         <v>151</v>
       </c>
@@ -22857,7 +23415,7 @@
   <autoFilter ref="A1:S341" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="ADSL"/>
+        <filter val="ADTTE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -22878,24 +23436,24 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="18" width="15.5" customWidth="1"/>
-    <col min="19" max="26" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -23949,23 +24507,23 @@
   <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B468" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B383" sqref="B383"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25467,7 +26025,7 @@
       <c r="F75" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="22" t="s">
         <v>824</v>
       </c>
     </row>
@@ -25547,7 +26105,7 @@
       <c r="F79" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="22" t="s">
         <v>828</v>
       </c>
     </row>
@@ -27473,10 +28031,10 @@
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1">
       <c r="A176" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>67</v>
@@ -27493,10 +28051,10 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1">
       <c r="A177" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>67</v>
@@ -27513,10 +28071,10 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1">
       <c r="A178" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>67</v>
@@ -27533,10 +28091,10 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1">
       <c r="A179" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>67</v>
@@ -27553,10 +28111,10 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1">
       <c r="A180" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>67</v>
@@ -27573,10 +28131,10 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1">
       <c r="A181" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>67</v>
@@ -27593,10 +28151,10 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1">
       <c r="A182" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>67</v>
@@ -27613,10 +28171,10 @@
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1">
       <c r="A183" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>67</v>
@@ -27633,10 +28191,10 @@
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1">
       <c r="A184" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>67</v>
@@ -27653,10 +28211,10 @@
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1">
       <c r="A185" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>67</v>
@@ -27673,10 +28231,10 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1">
       <c r="A186" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>67</v>
@@ -27693,10 +28251,10 @@
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1">
       <c r="A187" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>67</v>
@@ -27713,10 +28271,10 @@
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1">
       <c r="A188" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>67</v>
@@ -27733,10 +28291,10 @@
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1">
       <c r="A189" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>67</v>
@@ -27753,10 +28311,10 @@
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1">
       <c r="A190" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>67</v>
@@ -27792,7 +28350,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="22" t="s">
         <v>727</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -29433,10 +29991,10 @@
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1">
       <c r="A274" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>82</v>
@@ -29453,10 +30011,10 @@
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1">
       <c r="A275" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>82</v>
@@ -29473,10 +30031,10 @@
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1">
       <c r="A276" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>82</v>
@@ -29493,10 +30051,10 @@
     </row>
     <row r="277" spans="1:8" ht="15.75" customHeight="1">
       <c r="A277" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>82</v>
@@ -29513,10 +30071,10 @@
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1">
       <c r="A278" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>82</v>
@@ -29533,10 +30091,10 @@
     </row>
     <row r="279" spans="1:8" ht="15.75" customHeight="1">
       <c r="A279" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>82</v>
@@ -29553,10 +30111,10 @@
     </row>
     <row r="280" spans="1:8" ht="15.75" customHeight="1">
       <c r="A280" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>82</v>
@@ -29573,10 +30131,10 @@
     </row>
     <row r="281" spans="1:8" ht="15.75" customHeight="1">
       <c r="A281" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>82</v>
@@ -29593,10 +30151,10 @@
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1">
       <c r="A282" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>82</v>
@@ -29613,10 +30171,10 @@
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1">
       <c r="A283" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>82</v>
@@ -29633,10 +30191,10 @@
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1">
       <c r="A284" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>82</v>
@@ -29653,10 +30211,10 @@
     </row>
     <row r="285" spans="1:8" ht="15.75" customHeight="1">
       <c r="A285" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>82</v>
@@ -29673,10 +30231,10 @@
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1">
       <c r="A286" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>82</v>
@@ -29693,10 +30251,10 @@
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1">
       <c r="A287" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>82</v>
@@ -29713,10 +30271,10 @@
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1">
       <c r="A288" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>82</v>
@@ -29732,7 +30290,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="22" t="s">
         <v>731</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -31393,10 +31951,10 @@
     </row>
     <row r="372" spans="1:8" ht="15.75" customHeight="1">
       <c r="A372" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>67</v>
@@ -31413,10 +31971,10 @@
     </row>
     <row r="373" spans="1:8" ht="15.75" customHeight="1">
       <c r="A373" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>67</v>
@@ -31433,10 +31991,10 @@
     </row>
     <row r="374" spans="1:8" ht="15.75" customHeight="1">
       <c r="A374" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>67</v>
@@ -31453,10 +32011,10 @@
     </row>
     <row r="375" spans="1:8" ht="15.75" customHeight="1">
       <c r="A375" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>67</v>
@@ -31473,10 +32031,10 @@
     </row>
     <row r="376" spans="1:8" ht="15.75" customHeight="1">
       <c r="A376" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>67</v>
@@ -31493,10 +32051,10 @@
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>67</v>
@@ -31513,10 +32071,10 @@
     </row>
     <row r="378" spans="1:8" ht="15.75" customHeight="1">
       <c r="A378" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>67</v>
@@ -31533,10 +32091,10 @@
     </row>
     <row r="379" spans="1:8" ht="15.75" customHeight="1">
       <c r="A379" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>67</v>
@@ -31553,10 +32111,10 @@
     </row>
     <row r="380" spans="1:8" ht="15.75" customHeight="1">
       <c r="A380" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>67</v>
@@ -31573,10 +32131,10 @@
     </row>
     <row r="381" spans="1:8" ht="15.75" customHeight="1">
       <c r="A381" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>67</v>
@@ -31593,10 +32151,10 @@
     </row>
     <row r="382" spans="1:8" ht="15.75" customHeight="1">
       <c r="A382" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>67</v>
@@ -31613,10 +32171,10 @@
     </row>
     <row r="383" spans="1:8" ht="15.75" customHeight="1">
       <c r="A383" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>67</v>
@@ -31633,10 +32191,10 @@
     </row>
     <row r="384" spans="1:8" ht="15.75" customHeight="1">
       <c r="A384" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>67</v>
@@ -31653,10 +32211,10 @@
     </row>
     <row r="385" spans="1:8" ht="15.75" customHeight="1">
       <c r="A385" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>67</v>
@@ -31673,10 +32231,10 @@
     </row>
     <row r="386" spans="1:8" ht="15.75" customHeight="1">
       <c r="A386" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>67</v>
@@ -31851,7 +32409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15.75" customHeight="1">
+    <row r="395" spans="1:8" ht="14.25" customHeight="1">
       <c r="A395" s="2" t="s">
         <v>104</v>
       </c>
@@ -34225,7 +34783,7 @@
     <row r="954" ht="15.75" customHeight="1"/>
     <row r="955" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H490" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:H490" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -34245,12 +34803,12 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -35300,20 +35858,20 @@
   <dimension ref="A1:H790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -35342,7 +35900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" hidden="1">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -35353,189 +35911,189 @@
         <v>1162</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" hidden="1">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" hidden="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" hidden="1">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" hidden="1">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" hidden="1">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" hidden="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" hidden="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" hidden="1">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" hidden="1">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" hidden="1">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" hidden="1">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="32" hidden="1">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" hidden="1">
       <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" hidden="1">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" hidden="1" customHeight="1">
@@ -35543,13 +36101,13 @@
         <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35557,13 +36115,13 @@
         <v>312</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35571,13 +36129,13 @@
         <v>287</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35585,13 +36143,13 @@
         <v>290</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35599,13 +36157,13 @@
         <v>293</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35613,13 +36171,13 @@
         <v>296</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35627,13 +36185,13 @@
         <v>323</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35641,13 +36199,13 @@
         <v>284</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35655,13 +36213,13 @@
         <v>281</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35669,13 +36227,13 @@
         <v>299</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35683,13 +36241,13 @@
         <v>303</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35697,13 +36255,13 @@
         <v>275</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35711,13 +36269,13 @@
         <v>278</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35725,13 +36283,13 @@
         <v>307</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35739,13 +36297,13 @@
         <v>243</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35753,7 +36311,7 @@
         <v>208</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1162</v>
@@ -35767,7 +36325,7 @@
         <v>209</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1162</v>
@@ -35781,7 +36339,7 @@
         <v>210</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1162</v>
@@ -35795,13 +36353,13 @@
         <v>359</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35809,13 +36367,13 @@
         <v>343</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35823,13 +36381,13 @@
         <v>347</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35837,13 +36395,13 @@
         <v>351</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35851,13 +36409,13 @@
         <v>331</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35865,13 +36423,13 @@
         <v>339</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35879,13 +36437,13 @@
         <v>335</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35893,13 +36451,13 @@
         <v>221</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35907,13 +36465,13 @@
         <v>224</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35921,27 +36479,27 @@
         <v>227</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="96" hidden="1">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105" hidden="1">
       <c r="A44" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35949,7 +36507,7 @@
         <v>211</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1162</v>
@@ -35958,18 +36516,18 @@
         <v>589</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:4" ht="90">
       <c r="A46" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>590</v>
+      <c r="D46" s="21" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -35977,7 +36535,7 @@
         <v>216</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1162</v>
@@ -35991,7 +36549,7 @@
         <v>213</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1162</v>
@@ -36005,7 +36563,7 @@
         <v>200</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1162</v>
@@ -36019,7 +36577,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1162</v>
@@ -36033,7 +36591,7 @@
         <v>204</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1162</v>
@@ -36047,7 +36605,7 @@
         <v>207</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1162</v>
@@ -36061,7 +36619,7 @@
         <v>218</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1162</v>
@@ -36075,13 +36633,13 @@
         <v>327</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36089,7 +36647,7 @@
         <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1162</v>
@@ -36103,7 +36661,7 @@
         <v>201</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1162</v>
@@ -36112,96 +36670,96 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1162</v>
@@ -36210,12 +36768,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+    <row r="64" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1162</v>
@@ -36224,12 +36782,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+    <row r="65" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1162</v>
@@ -36239,115 +36797,115 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="22" t="s">
         <v>423</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D66" s="20" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="90">
       <c r="A67" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="224">
+      <c r="D67" s="21" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="120">
       <c r="A68" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D68" s="21" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="45">
       <c r="A70" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45">
       <c r="A71" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="120">
       <c r="A73" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>1699</v>
+      <c r="D73" s="21" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
@@ -36355,13 +36913,13 @@
         <v>419</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1284</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
@@ -36369,35 +36927,35 @@
         <v>416</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1162</v>
@@ -36406,12 +36964,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+    <row r="78" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1162</v>
@@ -36420,138 +36978,138 @@
         <v>609</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+    <row r="79" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1162</v>
@@ -36560,26 +37118,26 @@
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+    <row r="89" spans="1:4" ht="90">
       <c r="A89" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D89" s="21" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1162</v>
@@ -36588,12 +37146,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+    <row r="91" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1162</v>
@@ -36602,12 +37160,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1">
+    <row r="92" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1162</v>
@@ -36616,12 +37174,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+    <row r="93" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1162</v>
@@ -36630,12 +37188,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+    <row r="94" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1162</v>
@@ -36644,12 +37202,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+    <row r="95" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1162</v>
@@ -36658,12 +37216,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+    <row r="96" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1162</v>
@@ -36672,12 +37230,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+    <row r="97" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1162</v>
@@ -36686,12 +37244,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1">
+    <row r="98" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1162</v>
@@ -36700,12 +37258,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1">
+    <row r="99" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1162</v>
@@ -36714,12 +37272,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1">
+    <row r="100" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1162</v>
@@ -36728,18 +37286,18 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1">
+    <row r="101" spans="1:4" ht="30">
       <c r="A101" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1306</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1">
@@ -36747,13 +37305,13 @@
         <v>388</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1307</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36761,13 +37319,13 @@
         <v>478</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36775,13 +37333,13 @@
         <v>477</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36789,13 +37347,13 @@
         <v>487</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36803,13 +37361,13 @@
         <v>464</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36817,13 +37375,13 @@
         <v>463</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36831,13 +37389,13 @@
         <v>488</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -36845,7 +37403,7 @@
         <v>452</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1162</v>
@@ -36859,7 +37417,7 @@
         <v>453</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1162</v>
@@ -36873,7 +37431,7 @@
         <v>454</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1162</v>
@@ -36882,158 +37440,158 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="D112" s="20" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="90">
       <c r="A113" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" hidden="1" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="D113" s="21" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="150">
+      <c r="A114" s="22" t="s">
         <v>485</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="D114" s="21" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="D115" s="21" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="45">
       <c r="A116" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="45">
       <c r="A117" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="D118" s="21" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="150">
       <c r="A119" s="2" t="s">
         <v>486</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="D119" s="21" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>482</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>1307</v>
+      <c r="D122" s="21" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37041,7 +37599,7 @@
         <v>458</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1162</v>
@@ -37055,7 +37613,7 @@
         <v>459</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1162</v>
@@ -37069,13 +37627,13 @@
         <v>490</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37083,13 +37641,13 @@
         <v>489</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37097,13 +37655,13 @@
         <v>491</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37111,13 +37669,13 @@
         <v>468</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37125,13 +37683,13 @@
         <v>470</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37139,13 +37697,13 @@
         <v>472</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37153,13 +37711,13 @@
         <v>473</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37167,13 +37725,13 @@
         <v>480</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37181,13 +37739,13 @@
         <v>479</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37195,7 +37753,7 @@
         <v>455</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1162</v>
@@ -37204,18 +37762,18 @@
         <v>589</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:4" ht="90">
       <c r="A135" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>590</v>
+      <c r="D135" s="21" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37223,7 +37781,7 @@
         <v>460</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1162</v>
@@ -37237,7 +37795,7 @@
         <v>457</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1162</v>
@@ -37251,7 +37809,7 @@
         <v>443</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1162</v>
@@ -37265,7 +37823,7 @@
         <v>444</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1162</v>
@@ -37279,7 +37837,7 @@
         <v>448</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1162</v>
@@ -37293,7 +37851,7 @@
         <v>449</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1162</v>
@@ -37307,7 +37865,7 @@
         <v>451</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1162</v>
@@ -37321,7 +37879,7 @@
         <v>446</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1162</v>
@@ -37335,7 +37893,7 @@
         <v>447</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1162</v>
@@ -37349,7 +37907,7 @@
         <v>450</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1162</v>
@@ -37363,7 +37921,7 @@
         <v>445</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1162</v>
@@ -37372,32 +37930,32 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:4" ht="30">
       <c r="A147" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="D147" s="21" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>1307</v>
+      <c r="D148" s="21" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37405,13 +37963,13 @@
         <v>529</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37419,13 +37977,13 @@
         <v>528</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37433,7 +37991,7 @@
         <v>534</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>1162</v>
@@ -37447,13 +38005,13 @@
         <v>513</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37461,13 +38019,13 @@
         <v>512</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37475,7 +38033,7 @@
         <v>501</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>1162</v>
@@ -37489,7 +38047,7 @@
         <v>502</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1162</v>
@@ -37503,7 +38061,7 @@
         <v>503</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>1162</v>
@@ -37517,13 +38075,13 @@
         <v>526</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37531,7 +38089,7 @@
         <v>510</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1162</v>
@@ -37545,13 +38103,13 @@
         <v>511</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37559,13 +38117,13 @@
         <v>527</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37573,13 +38131,13 @@
         <v>533</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37587,13 +38145,13 @@
         <v>532</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37601,7 +38159,7 @@
         <v>507</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>1162</v>
@@ -37615,13 +38173,13 @@
         <v>545</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37629,13 +38187,13 @@
         <v>548</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37643,13 +38201,13 @@
         <v>552</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37657,7 +38215,7 @@
         <v>508</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>1162</v>
@@ -37671,13 +38229,13 @@
         <v>520</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37685,13 +38243,13 @@
         <v>522</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37699,13 +38257,13 @@
         <v>524</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37713,13 +38271,13 @@
         <v>518</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37727,13 +38285,13 @@
         <v>525</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37741,13 +38299,13 @@
         <v>531</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37755,13 +38313,13 @@
         <v>530</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37769,7 +38327,7 @@
         <v>504</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>1162</v>
@@ -37783,7 +38341,7 @@
         <v>505</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1162</v>
@@ -37797,7 +38355,7 @@
         <v>509</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>1162</v>
@@ -37811,7 +38369,7 @@
         <v>506</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1162</v>
@@ -37825,13 +38383,13 @@
         <v>538</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37839,13 +38397,13 @@
         <v>542</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37853,7 +38411,7 @@
         <v>492</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>1162</v>
@@ -37867,7 +38425,7 @@
         <v>493</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1162</v>
@@ -37881,7 +38439,7 @@
         <v>497</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>1162</v>
@@ -37895,7 +38453,7 @@
         <v>498</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>1162</v>
@@ -37909,7 +38467,7 @@
         <v>500</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>1162</v>
@@ -37923,7 +38481,7 @@
         <v>495</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>1162</v>
@@ -37937,7 +38495,7 @@
         <v>496</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>1162</v>
@@ -37951,7 +38509,7 @@
         <v>499</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1162</v>
@@ -37965,7 +38523,7 @@
         <v>494</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1162</v>
@@ -37979,13 +38537,13 @@
         <v>514</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -37993,13 +38551,13 @@
         <v>515</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38007,13 +38565,13 @@
         <v>583</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38021,13 +38579,13 @@
         <v>584</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38035,13 +38593,13 @@
         <v>585</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38049,13 +38607,13 @@
         <v>588</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38063,13 +38621,13 @@
         <v>559</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38077,13 +38635,13 @@
         <v>579</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38091,13 +38649,13 @@
         <v>615</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38105,13 +38663,13 @@
         <v>619</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38119,13 +38677,13 @@
         <v>604</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38133,41 +38691,41 @@
         <v>605</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="32" hidden="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="30" hidden="1">
       <c r="A202" s="2" t="s">
         <v>601</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="176" hidden="1">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="180" hidden="1">
       <c r="A203" s="2" t="s">
         <v>582</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38175,41 +38733,41 @@
         <v>657</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" hidden="1" customHeight="1">
-      <c r="A205" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>1444</v>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="390">
+      <c r="A205" s="22" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>1712</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="30">
       <c r="A206" s="2" t="s">
         <v>608</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1447</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38217,27 +38775,27 @@
         <v>631</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1451</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38245,13 +38803,13 @@
         <v>612</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38259,13 +38817,13 @@
         <v>634</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38273,13 +38831,13 @@
         <v>638</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38287,13 +38845,13 @@
         <v>628</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38301,13 +38859,13 @@
         <v>598</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38315,13 +38873,13 @@
         <v>660</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38329,13 +38887,13 @@
         <v>594</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38343,13 +38901,13 @@
         <v>622</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38357,13 +38915,13 @@
         <v>597</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38371,13 +38929,13 @@
         <v>667</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38385,13 +38943,13 @@
         <v>589</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38399,13 +38957,13 @@
         <v>590</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38413,13 +38971,13 @@
         <v>653</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38427,13 +38985,13 @@
         <v>647</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38441,13 +38999,13 @@
         <v>644</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38455,13 +39013,13 @@
         <v>595</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38469,27 +39027,27 @@
         <v>591</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="45">
       <c r="A226" s="2" t="s">
         <v>557</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1695</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38497,13 +39055,13 @@
         <v>556</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38511,13 +39069,13 @@
         <v>553</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38525,13 +39083,13 @@
         <v>555</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38539,13 +39097,13 @@
         <v>568</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38553,13 +39111,13 @@
         <v>571</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38567,13 +39125,13 @@
         <v>562</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38581,13 +39139,13 @@
         <v>565</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38595,13 +39153,13 @@
         <v>576</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38609,13 +39167,13 @@
         <v>573</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38623,13 +39181,13 @@
         <v>572</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38637,13 +39195,13 @@
         <v>554</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38651,27 +39209,27 @@
         <v>641</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="48" hidden="1">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="75">
       <c r="A239" s="2" t="s">
         <v>650</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1507</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38679,13 +39237,13 @@
         <v>625</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38693,13 +39251,13 @@
         <v>693</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38707,7 +39265,7 @@
         <v>671</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>1162</v>
@@ -38721,7 +39279,7 @@
         <v>672</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>1162</v>
@@ -38735,7 +39293,7 @@
         <v>673</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>1162</v>
@@ -38749,13 +39307,13 @@
         <v>689</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38763,13 +39321,13 @@
         <v>697</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38777,13 +39335,13 @@
         <v>700</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38791,13 +39349,13 @@
         <v>686</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38805,13 +39363,13 @@
         <v>688</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38819,7 +39377,7 @@
         <v>674</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>1162</v>
@@ -38828,18 +39386,18 @@
         <v>589</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="251" spans="1:4" ht="90">
       <c r="A251" s="2" t="s">
         <v>675</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D251" s="4" t="s">
-        <v>590</v>
+      <c r="D251" s="21" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38847,7 +39405,7 @@
         <v>710</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>1162</v>
@@ -38861,7 +39419,7 @@
         <v>676</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>1162</v>
@@ -38875,7 +39433,7 @@
         <v>669</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>1162</v>
@@ -38889,13 +39447,13 @@
         <v>703</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38903,13 +39461,13 @@
         <v>709</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38917,13 +39475,13 @@
         <v>706</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -38931,7 +39489,7 @@
         <v>692</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1162</v>
@@ -38945,7 +39503,7 @@
         <v>668</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>1162</v>
@@ -38959,7 +39517,7 @@
         <v>683</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>1162</v>
@@ -38973,7 +39531,7 @@
         <v>684</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1162</v>
@@ -38987,7 +39545,7 @@
         <v>681</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>1162</v>
@@ -39001,7 +39559,7 @@
         <v>678</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>1162</v>
@@ -39015,7 +39573,7 @@
         <v>682</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>1162</v>
@@ -39029,7 +39587,7 @@
         <v>677</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>1162</v>
@@ -39043,7 +39601,7 @@
         <v>670</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>1162</v>
@@ -39057,13 +39615,13 @@
         <v>755</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39071,13 +39629,13 @@
         <v>733</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39085,13 +39643,13 @@
         <v>734</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39099,7 +39657,7 @@
         <v>714</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>1162</v>
@@ -39113,7 +39671,7 @@
         <v>715</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>1162</v>
@@ -39127,7 +39685,7 @@
         <v>716</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>1162</v>
@@ -39136,46 +39694,46 @@
         <v>585</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="273" spans="1:4" ht="90">
       <c r="A273" s="2" t="s">
         <v>754</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" s="2" t="s">
         <v>740</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" s="2" t="s">
         <v>737</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39183,41 +39741,41 @@
         <v>743</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="165">
       <c r="A277" s="2" t="s">
         <v>741</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="75">
       <c r="A278" s="2" t="s">
         <v>742</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1280</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39225,13 +39783,13 @@
         <v>744</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39239,13 +39797,13 @@
         <v>747</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39253,27 +39811,27 @@
         <v>748</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="30">
       <c r="A282" s="2" t="s">
         <v>730</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>1546</v>
+      <c r="D282" s="21" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39281,27 +39839,27 @@
         <v>728</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="30">
       <c r="A284" s="2" t="s">
         <v>732</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1301</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39309,13 +39867,13 @@
         <v>749</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39323,7 +39881,7 @@
         <v>717</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>1162</v>
@@ -39332,18 +39890,18 @@
         <v>589</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="287" spans="1:4" ht="90">
       <c r="A287" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D287" s="4" t="s">
-        <v>590</v>
+      <c r="D287" s="21" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39351,7 +39909,7 @@
         <v>720</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>1162</v>
@@ -39365,7 +39923,7 @@
         <v>719</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>1162</v>
@@ -39379,7 +39937,7 @@
         <v>712</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>1162</v>
@@ -39393,7 +39951,7 @@
         <v>711</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>1162</v>
@@ -39407,7 +39965,7 @@
         <v>725</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>1162</v>
@@ -39421,7 +39979,7 @@
         <v>726</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>1162</v>
@@ -39435,7 +39993,7 @@
         <v>722</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>1162</v>
@@ -39449,7 +40007,7 @@
         <v>723</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>1162</v>
@@ -39463,7 +40021,7 @@
         <v>724</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>1162</v>
@@ -39477,7 +40035,7 @@
         <v>721</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>1162</v>
@@ -39491,7 +40049,7 @@
         <v>713</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>1162</v>
@@ -39505,13 +40063,13 @@
         <v>751</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39519,13 +40077,13 @@
         <v>750</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15.75" hidden="1" customHeight="1">
@@ -39533,18 +40091,18 @@
         <v>753</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="17" customFormat="1" ht="45">
       <c r="A302" s="17" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="B302" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A302)</f>
@@ -39553,13 +40111,13 @@
       <c r="C302" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D302" s="17" t="s">
-        <v>1651</v>
+      <c r="D302" s="23" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="303" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="17" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="B303" s="17" t="str">
         <f t="shared" ref="B303:B305" si="0">CONCATENATE("Algorithm to derive ",A303)</f>
@@ -39569,12 +40127,12 @@
         <v>1162</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="304" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="17" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="B304" s="17" t="str">
         <f t="shared" si="0"/>
@@ -39584,12 +40142,12 @@
         <v>1162</v>
       </c>
       <c r="D304" s="18" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="17" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="B305" s="17" t="str">
         <f t="shared" si="0"/>
@@ -39599,12 +40157,12 @@
         <v>1162</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A306" s="17" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="B306" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A306)</f>
@@ -39614,12 +40172,12 @@
         <v>1162</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A307" s="17" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="B307" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A307)</f>
@@ -39629,12 +40187,12 @@
         <v>1162</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A308" s="17" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="B308" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A308)</f>
@@ -39644,12 +40202,12 @@
         <v>1162</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="17" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="B309" s="17" t="str">
         <f>CONCATENATE("Algorithm to derive ",A309)</f>
@@ -39659,7 +40217,7 @@
         <v>1162</v>
       </c>
       <c r="D309" s="18" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="310" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
@@ -39674,7 +40232,7 @@
         <v>1162</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15.75" customHeight="1"/>
@@ -40159,55 +40717,8 @@
     <row r="790" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:H310" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ADLBC.A1HI"/>
-        <filter val="ADLBC.A1LO"/>
-        <filter val="ADLBC.ABLFL"/>
-        <filter val="ADLBC.ADT"/>
-        <filter val="ADLBC.ADY"/>
-        <filter val="ADLBC.AENTMTFL"/>
-        <filter val="ADLBC.AGE"/>
-        <filter val="ADLBC.AGEGR1"/>
-        <filter val="ADLBC.AGEGR1N"/>
-        <filter val="ADLBC.ALBTRVAL"/>
-        <filter val="ADLBC.ANL01FL"/>
-        <filter val="ADLBC.ANRIND"/>
-        <filter val="ADLBC.AVAL"/>
-        <filter val="ADLBC.AVISIT"/>
-        <filter val="ADLBC.AVISITN"/>
-        <filter val="ADLBC.BASE"/>
-        <filter val="ADLBC.BNRIND"/>
-        <filter val="ADLBC.BR2A1HI"/>
-        <filter val="ADLBC.BR2A1LO"/>
-        <filter val="ADLBC.CHG"/>
-        <filter val="ADLBC.COMP24FL"/>
-        <filter val="ADLBC.DSRAEFL"/>
-        <filter val="ADLBC.LBNRIND"/>
-        <filter val="ADLBC.LBSEQ"/>
-        <filter val="ADLBC.LBSTRESN"/>
-        <filter val="ADLBC.PARAM"/>
-        <filter val="ADLBC.PARAMCD"/>
-        <filter val="ADLBC.PARAMN"/>
-        <filter val="ADLBC.PARCAT1"/>
-        <filter val="ADLBC.R2A1HI"/>
-        <filter val="ADLBC.R2A1LO"/>
-        <filter val="ADLBC.RACE"/>
-        <filter val="ADLBC.RACEN"/>
-        <filter val="ADLBC.SAFFL"/>
-        <filter val="ADLBC.SEX"/>
-        <filter val="ADLBC.STUDYID"/>
-        <filter val="ADLBC.SUBJID"/>
-        <filter val="ADLBC.TRTA"/>
-        <filter val="ADLBC.TRTAN"/>
-        <filter val="ADLBC.TRTEDT"/>
-        <filter val="ADLBC.TRTP"/>
-        <filter val="ADLBC.TRTPN"/>
-        <filter val="ADLBC.TRTSDT"/>
-        <filter val="ADLBC.USUBJID"/>
-        <filter val="ADLBC.VISIT"/>
-        <filter val="ADLBC.VISITNUM"/>
-      </filters>
+    <filterColumn colId="3">
+      <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40226,39 +40737,39 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1"/>
-    <col min="7" max="29" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="29" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="48">
+    <row r="1" spans="1:29" ht="45">
       <c r="A1" s="6" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -40284,9 +40795,9 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
     </row>
-    <row r="2" spans="1:29" ht="196">
+    <row r="2" spans="1:29" ht="200.25">
       <c r="A2" s="8" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -40296,10 +40807,10 @@
         <v>580</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -40327,10 +40838,10 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>39</v>
@@ -40339,10 +40850,10 @@
         <v>577</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -40370,10 +40881,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -40382,10 +40893,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -40413,10 +40924,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -40425,10 +40936,10 @@
         <v>613</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -40456,10 +40967,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>39</v>
@@ -40468,10 +40979,10 @@
         <v>626</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -40499,10 +41010,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -40511,10 +41022,10 @@
         <v>665</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -40542,10 +41053,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -40554,10 +41065,10 @@
         <v>616</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -40585,22 +41096,22 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="8" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -40626,24 +41137,24 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="32">
+    <row r="10" spans="1:29" ht="30">
       <c r="A10" s="15" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -40669,24 +41180,24 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" ht="144">
+    <row r="11" spans="1:29" ht="135">
       <c r="A11" s="15" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -71389,12 +71900,12 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -71416,15 +71927,15 @@
         <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -71432,55 +71943,55 @@
         <v>158</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
